--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -208,18 +208,18 @@
     <t>230332</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
     <t>230444</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
     <t>230238</t>
   </si>
   <si>
@@ -253,15 +253,15 @@
     <t>230045</t>
   </si>
   <si>
+    <t>230145</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
     <t>230038</t>
   </si>
   <si>
-    <t>230145</t>
-  </si>
-  <si>
     <t>230500</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t>230613</t>
   </si>
   <si>
+    <t>230070</t>
+  </si>
+  <si>
     <t>230726</t>
   </si>
   <si>
@@ -286,9 +289,6 @@
     <t>230507</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
     <t>230052</t>
   </si>
   <si>
@@ -331,6 +331,9 @@
     <t>230248</t>
   </si>
   <si>
+    <t>230727</t>
+  </si>
+  <si>
     <t>230470</t>
   </si>
   <si>
@@ -340,9 +343,6 @@
     <t>230525</t>
   </si>
   <si>
-    <t>230727</t>
-  </si>
-  <si>
     <t>230526</t>
   </si>
   <si>
@@ -352,6 +352,9 @@
     <t>230016</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
     <t>230458</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
     <t>230259</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
     <t>230017</t>
   </si>
   <si>
@@ -397,6 +397,9 @@
     <t>230033</t>
   </si>
   <si>
+    <t>230527</t>
+  </si>
+  <si>
     <t>230395</t>
   </si>
   <si>
@@ -406,9 +409,6 @@
     <t>230563</t>
   </si>
   <si>
-    <t>230527</t>
-  </si>
-  <si>
     <t>230203</t>
   </si>
   <si>
@@ -523,9 +523,6 @@
     <t>9(7.8%)</t>
   </si>
   <si>
-    <t>11(12.4%)</t>
-  </si>
-  <si>
     <t>31(27.0%)</t>
   </si>
   <si>
@@ -547,7 +544,7 @@
     <t>3(2.6%)</t>
   </si>
   <si>
-    <t>14(15.7%)</t>
+    <t>15(16.9%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>8(9.0%)</t>
   </si>
   <si>
     <t>3(3.4%)</t>
@@ -1232,10 +1232,10 @@
         <v>168</v>
       </c>
       <c r="AA4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB4" t="s">
         <v>169</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1291,28 +1291,28 @@
         <v>147</v>
       </c>
       <c r="T5" t="s">
+        <v>170</v>
+      </c>
+      <c r="U5" t="s">
         <v>171</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W5" t="s">
         <v>172</v>
       </c>
-      <c r="V5" t="s">
-        <v>150</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>173</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>174</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>176</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>177</v>
       </c>
       <c r="AB5" t="s">
         <v>154</v>
@@ -1374,7 +1374,7 @@
         <v>150</v>
       </c>
       <c r="U6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V6" t="s">
         <v>150</v>
@@ -1389,13 +1389,13 @@
         <v>143</v>
       </c>
       <c r="Z6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA6" t="s">
         <v>160</v>
       </c>
       <c r="AB6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1448,7 +1448,7 @@
         <v>150</v>
       </c>
       <c r="S7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T7" t="s">
         <v>150</v>
@@ -1460,22 +1460,22 @@
         <v>150</v>
       </c>
       <c r="W7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA7" t="s">
         <v>179</v>
       </c>
-      <c r="X7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1528,7 +1528,7 @@
         <v>150</v>
       </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
         <v>150</v>
@@ -1540,19 +1540,19 @@
         <v>150</v>
       </c>
       <c r="W8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z8" t="s">
         <v>182</v>
       </c>
-      <c r="X8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>149</v>
       </c>
       <c r="AB8" t="s">
         <v>150</v>
@@ -1694,7 +1694,7 @@
         <v>150</v>
       </c>
       <c r="U10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V10" t="s">
         <v>150</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
@@ -3369,13 +3369,13 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -3390,16 +3390,16 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L45" t="s">
         <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N45">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3410,60 +3410,60 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L46" t="s">
         <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3472,22 +3472,22 @@
         <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3498,7 +3498,7 @@
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -3510,33 +3510,33 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N48">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
@@ -3944,39 +3944,39 @@
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N58">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
@@ -3985,31 +3985,31 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M59" t="s">
         <v>41</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
@@ -4029,16 +4029,16 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -4047,24 +4047,24 @@
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M60" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N60">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
@@ -4299,31 +4299,31 @@
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M66" t="s">
         <v>41</v>
       </c>
       <c r="N66">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4337,78 +4337,78 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K67" t="s">
         <v>15</v>
       </c>
       <c r="L67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N67">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L68" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="M68" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N68">
         <v>3.65</v>
@@ -4416,19 +4416,19 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
         <v>41</v>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -4446,16 +4446,16 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M69" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N69">
-        <v>3.64</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5076,22 +5076,22 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>105</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -5100,22 +5100,22 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
         <v>73</v>
       </c>
       <c r="M84" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N84">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5129,37 +5129,37 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="M85" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="N85">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5173,7 +5173,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
@@ -5182,69 +5182,69 @@
         <v>50</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I86" t="s">
         <v>16</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L86" t="s">
         <v>41</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N86">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s">
         <v>16</v>
       </c>
       <c r="J87" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N87">
         <v>3.5</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
@@ -5393,19 +5393,19 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H91" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I91" t="s">
         <v>16</v>
@@ -5417,10 +5417,10 @@
         <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M91" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N91">
         <v>3.47</v>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>113</v>
@@ -5437,42 +5437,42 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K92" t="s">
         <v>15</v>
       </c>
       <c r="L92" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M92" t="s">
         <v>50</v>
       </c>
       <c r="N92">
-        <v>3.46</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>114</v>
@@ -5481,34 +5481,34 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L93" t="s">
         <v>73</v>
       </c>
       <c r="M93" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N93">
         <v>3.46</v>
@@ -5516,46 +5516,46 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="K94" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N94">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5566,45 +5566,45 @@
         <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="L95" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
       </c>
       <c r="N95">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>117</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>118</v>
@@ -6015,36 +6015,36 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G105" t="s">
         <v>17</v>
       </c>
       <c r="H105" t="s">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>22</v>
+      </c>
+      <c r="K105" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" t="s">
         <v>73</v>
       </c>
-      <c r="I105" t="s">
-        <v>16</v>
-      </c>
-      <c r="J105" t="s">
-        <v>41</v>
-      </c>
-      <c r="K105" t="s">
-        <v>17</v>
-      </c>
-      <c r="L105" t="s">
-        <v>125</v>
-      </c>
       <c r="M105" t="s">
         <v>50</v>
       </c>
       <c r="N105">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>128</v>
@@ -6053,10 +6053,10 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
         <v>50</v>
@@ -6065,19 +6065,19 @@
         <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I106" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K106" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L106" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M106" t="s">
         <v>50</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>129</v>
@@ -6097,16 +6097,16 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F107" t="s">
         <v>50</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H107" t="s">
         <v>16</v>
@@ -6118,7 +6118,7 @@
         <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="L107" t="s">
         <v>77</v>
@@ -6127,12 +6127,12 @@
         <v>50</v>
       </c>
       <c r="N107">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>130</v>
@@ -6141,22 +6141,22 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J108" t="s">
         <v>22</v>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="193">
   <si>
     <t>Rank</t>
   </si>
@@ -55,6 +55,9 @@
     <t>EN2031</t>
   </si>
   <si>
+    <t>MA3014</t>
+  </si>
+  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -70,12 +73,12 @@
     <t>A</t>
   </si>
   <si>
+    <t>230266</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
-    <t>230266</t>
-  </si>
-  <si>
     <t>230436</t>
   </si>
   <si>
@@ -94,12 +97,12 @@
     <t>230082</t>
   </si>
   <si>
+    <t>230548</t>
+  </si>
+  <si>
     <t>230352</t>
   </si>
   <si>
-    <t>230548</t>
-  </si>
-  <si>
     <t>230018</t>
   </si>
   <si>
@@ -124,12 +127,12 @@
     <t>230469</t>
   </si>
   <si>
+    <t>230318</t>
+  </si>
+  <si>
     <t>230256</t>
   </si>
   <si>
-    <t>230318</t>
-  </si>
-  <si>
     <t>230544</t>
   </si>
   <si>
@@ -157,36 +160,36 @@
     <t>230566</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
     <t>230322</t>
   </si>
   <si>
     <t>230065</t>
   </si>
   <si>
+    <t>230724</t>
+  </si>
+  <si>
     <t>230536</t>
   </si>
   <si>
-    <t>230724</t>
-  </si>
-  <si>
     <t>230051</t>
   </si>
   <si>
@@ -205,12 +208,12 @@
     <t>230417</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
     <t>230218</t>
   </si>
   <si>
@@ -256,27 +259,27 @@
     <t>230145</t>
   </si>
   <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
-    <t>230038</t>
-  </si>
-  <si>
     <t>230500</t>
   </si>
   <si>
     <t>230195</t>
   </si>
   <si>
+    <t>230629</t>
+  </si>
+  <si>
     <t>230697</t>
   </si>
   <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
     <t>230070</t>
   </si>
   <si>
@@ -307,21 +310,21 @@
     <t>230013</t>
   </si>
   <si>
+    <t>230654</t>
+  </si>
+  <si>
     <t>230502</t>
   </si>
   <si>
     <t>230164</t>
   </si>
   <si>
-    <t>230654</t>
+    <t>230063</t>
   </si>
   <si>
     <t>230012</t>
   </si>
   <si>
-    <t>230063</t>
-  </si>
-  <si>
     <t>230581</t>
   </si>
   <si>
@@ -367,27 +370,27 @@
     <t>230259</t>
   </si>
   <si>
+    <t>230473</t>
+  </si>
+  <si>
     <t>230017</t>
   </si>
   <si>
-    <t>230473</t>
+    <t>230261</t>
   </si>
   <si>
     <t>230495</t>
   </si>
   <si>
-    <t>230261</t>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>230229</t>
   </si>
   <si>
     <t>230735</t>
   </si>
   <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
     <t>230650</t>
   </si>
   <si>
@@ -409,12 +412,12 @@
     <t>230563</t>
   </si>
   <si>
+    <t>230183</t>
+  </si>
+  <si>
     <t>230203</t>
   </si>
   <si>
-    <t>230183</t>
-  </si>
-  <si>
     <t>230636</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t>0(0.0%)</t>
   </si>
   <si>
+    <t>3(60.0%)</t>
+  </si>
+  <si>
     <t>13(65.0%)</t>
   </si>
   <si>
@@ -500,6 +506,9 @@
   </si>
   <si>
     <t>26(22.6%)</t>
+  </si>
+  <si>
+    <t>2(40.0%)</t>
   </si>
   <si>
     <t>4(20.0%)</t>
@@ -915,13 +924,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB116"/>
+  <dimension ref="A1:AD116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,88 +973,94 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="S2" t="s">
         <v>141</v>
@@ -1077,1912 +1092,2053 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="W3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>162</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
       <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" t="s">
+        <v>167</v>
+      </c>
+      <c r="V4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W4" t="s">
+        <v>168</v>
+      </c>
+      <c r="X4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB4" t="s">
         <v>162</v>
       </c>
-      <c r="S4" t="s">
-        <v>163</v>
-      </c>
-      <c r="T4" t="s">
-        <v>164</v>
-      </c>
-      <c r="U4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V4" t="s">
-        <v>165</v>
-      </c>
-      <c r="W4" t="s">
-        <v>166</v>
-      </c>
-      <c r="X4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
-        <v>41</v>
-      </c>
       <c r="R5" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T5" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="U5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="V5" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="W5" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="X5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>179</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>3.97</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6">
+        <v>3.9739</v>
       </c>
       <c r="R6" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="T6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="U6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="V6" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="W6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="X6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Y6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Z6" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="AA6" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>162</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <v>3.96</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <v>3.9609</v>
       </c>
       <c r="R7" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="T7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="U7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="V7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="W7" t="s">
+        <v>151</v>
+      </c>
+      <c r="X7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA7" t="s">
         <v>178</v>
       </c>
-      <c r="X7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>179</v>
-      </c>
       <c r="AB7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>182</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <v>3.96</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <v>3.9609</v>
       </c>
       <c r="R8" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="U8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="V8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="W8" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="X8" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="Y8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="AA8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AB8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>186</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9">
-        <v>3.96</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9">
+        <v>3.9609</v>
       </c>
       <c r="R9" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="S9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA9" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="AB9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>187</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10">
-        <v>3.96</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>138</v>
+        <v>23</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10">
+        <v>3.9609</v>
       </c>
       <c r="R10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="S10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U10" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="V10" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="W10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA10" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="AB10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>188</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11">
-        <v>3.96</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>186</v>
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>3.9609</v>
       </c>
       <c r="R11" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="S11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>151</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12">
-        <v>3.96</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>187</v>
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>3.9609</v>
       </c>
       <c r="R12" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="S12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>151</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13">
-        <v>3.96</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>188</v>
+        <v>18</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <v>3.9571</v>
       </c>
       <c r="R13" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="S13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>151</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14">
-        <v>3.96</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>189</v>
+        <v>18</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <v>3.9571</v>
       </c>
       <c r="R14" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="S14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>151</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>3.9571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <v>3.955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17">
         <v>3.95</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>3.94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <v>3.9375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>3.925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>3.925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>3.9217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <v>3.9217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23">
+        <v>42</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23">
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24">
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25">
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <v>3.8957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <v>3.8846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29">
+        <v>3.8826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <v>3.8739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
         <v>50</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N31" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31">
+        <v>3.8739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
         <v>50</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <v>3.8739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33">
+        <v>3.8696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34">
+        <v>3.8625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35">
+        <v>35</v>
+      </c>
+      <c r="N35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35">
         <v>3.85</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -2991,978 +3147,1044 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36">
+        <v>3.8478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>3.8478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38">
+        <v>3.8304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N39" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39">
+        <v>3.8304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>3.8269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
-      </c>
-      <c r="N41">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41">
+        <v>3.8217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42">
+        <v>3.8043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
-      </c>
-      <c r="N43">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43">
+        <v>3.8043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
-      </c>
-      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44">
+        <v>3.7913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45">
         <v>3.79</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" t="s">
-        <v>22</v>
-      </c>
-      <c r="M45" t="s">
-        <v>41</v>
-      </c>
-      <c r="N45">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
-      </c>
-      <c r="N46">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46">
         <v>3.78</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47">
+        <v>3.7652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M48" t="s">
         <v>50</v>
       </c>
-      <c r="N48">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="N48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>3.7571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N49">
+        <v>23</v>
+      </c>
+      <c r="N49" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49">
         <v>3.75</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50">
+        <v>3.7391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
-      </c>
-      <c r="N51">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51">
+        <v>3.7304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L52" t="s">
         <v>50</v>
       </c>
       <c r="M52" t="s">
-        <v>41</v>
-      </c>
-      <c r="N52">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N52" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52">
+        <v>3.7217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
-      </c>
-      <c r="N53">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N53" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53">
+        <v>3.7217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54">
+        <v>3.7143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" t="s">
-        <v>50</v>
-      </c>
-      <c r="N54">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s">
-        <v>73</v>
-      </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M55" t="s">
-        <v>41</v>
-      </c>
-      <c r="N55">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55">
+        <v>3.713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N56" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56">
+        <v>3.713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L57" t="s">
         <v>50</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N57">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57">
+        <v>3.7043</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L58" t="s">
         <v>50</v>
@@ -3970,615 +4192,657 @@
       <c r="M58" t="s">
         <v>50</v>
       </c>
-      <c r="N58">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58">
+        <v>3.7043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M59" t="s">
-        <v>41</v>
-      </c>
-      <c r="N59">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="N59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M60" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60">
+        <v>3.6913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L61" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>50</v>
-      </c>
-      <c r="N61">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61">
+        <v>3.6905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="N62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62">
+        <v>3.6783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
-      </c>
-      <c r="N63">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N63" t="s">
+        <v>17</v>
+      </c>
+      <c r="O63">
+        <v>3.6783</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>41</v>
-      </c>
-      <c r="N64">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N64" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64">
+        <v>3.6739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M65" t="s">
         <v>50</v>
       </c>
-      <c r="N65">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="N65" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65">
+        <v>3.6714</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M66" t="s">
-        <v>41</v>
-      </c>
-      <c r="N66">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66">
+        <v>3.6652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N67">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N67" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67">
+        <v>3.6609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M68" t="s">
-        <v>22</v>
-      </c>
-      <c r="N68">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68">
+        <v>3.6522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M69" t="s">
         <v>50</v>
       </c>
-      <c r="N69">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="N69" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F70" t="s">
         <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
-      </c>
-      <c r="N70">
+        <v>23</v>
+      </c>
+      <c r="N70" t="s">
+        <v>17</v>
+      </c>
+      <c r="O70">
         <v>3.63</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
         <v>50</v>
       </c>
       <c r="G71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J71" t="s">
         <v>50</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>41</v>
-      </c>
-      <c r="N71">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N71" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71">
+        <v>3.619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
         <v>50</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L72" t="s">
         <v>50</v>
@@ -4586,791 +4850,845 @@
       <c r="M72" t="s">
         <v>50</v>
       </c>
-      <c r="N72">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="N72" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72">
+        <v>3.613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
         <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L73" t="s">
         <v>50</v>
       </c>
       <c r="M73" t="s">
-        <v>34</v>
-      </c>
-      <c r="N73">
+        <v>35</v>
+      </c>
+      <c r="N73" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73">
         <v>3.6</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
         <v>50</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
-      </c>
-      <c r="N74">
+        <v>23</v>
+      </c>
+      <c r="N74" t="s">
+        <v>17</v>
+      </c>
+      <c r="O74">
         <v>3.6</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M75" t="s">
-        <v>17</v>
-      </c>
-      <c r="N75">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>18</v>
+      </c>
+      <c r="N75" t="s">
+        <v>17</v>
+      </c>
+      <c r="O75">
+        <v>3.5913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L76" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M76" t="s">
-        <v>41</v>
-      </c>
-      <c r="N76">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N76" t="s">
+        <v>17</v>
+      </c>
+      <c r="O76">
+        <v>3.5913</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>16</v>
+      </c>
+      <c r="L77" t="s">
         <v>74</v>
       </c>
-      <c r="B77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K77" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" t="s">
-        <v>50</v>
-      </c>
       <c r="M77" t="s">
-        <v>50</v>
-      </c>
-      <c r="N77">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N77" t="s">
+        <v>17</v>
+      </c>
+      <c r="O77">
+        <v>3.587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L78" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="M78" t="s">
-        <v>22</v>
-      </c>
-      <c r="N78">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="N78" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78">
+        <v>3.587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L79" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M79" t="s">
-        <v>41</v>
-      </c>
-      <c r="N79">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N79" t="s">
+        <v>17</v>
+      </c>
+      <c r="O79">
+        <v>3.5609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K80" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M80" t="s">
-        <v>22</v>
-      </c>
-      <c r="N80">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N80" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80">
+        <v>3.5583</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M81" t="s">
-        <v>34</v>
-      </c>
-      <c r="N81">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N81" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81">
+        <v>3.5471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>73</v>
-      </c>
-      <c r="N82">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="N82" t="s">
+        <v>17</v>
+      </c>
+      <c r="O82">
+        <v>3.5435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M83" t="s">
-        <v>41</v>
-      </c>
-      <c r="N83">
+        <v>42</v>
+      </c>
+      <c r="N83" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83">
+        <v>3.5435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>74</v>
+      </c>
+      <c r="M84" t="s">
+        <v>23</v>
+      </c>
+      <c r="N84" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84">
         <v>3.54</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>41</v>
-      </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J84" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
-      </c>
-      <c r="L84" t="s">
-        <v>73</v>
-      </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M85" t="s">
-        <v>41</v>
-      </c>
-      <c r="N85">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N85" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85">
+        <v>3.5261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
         <v>50</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
         <v>50</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M86" t="s">
-        <v>73</v>
-      </c>
-      <c r="N86">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="N86" t="s">
+        <v>17</v>
+      </c>
+      <c r="O86">
+        <v>3.5087</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
         <v>50</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M87" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87">
+        <v>18</v>
+      </c>
+      <c r="N87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87">
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
         <v>50</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M88" t="s">
         <v>50</v>
       </c>
-      <c r="N88">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="N88" t="s">
+        <v>17</v>
+      </c>
+      <c r="O88">
+        <v>3.4957</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
         <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M89" t="s">
-        <v>34</v>
-      </c>
-      <c r="N89">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N89" t="s">
+        <v>17</v>
+      </c>
+      <c r="O89">
+        <v>3.495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
         <v>50</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L90" t="s">
         <v>50</v>
@@ -5378,1152 +5696,1233 @@
       <c r="M90" t="s">
         <v>50</v>
       </c>
-      <c r="N90">
+      <c r="N90" t="s">
+        <v>17</v>
+      </c>
+      <c r="O90">
         <v>3.48</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>50</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L91" t="s">
         <v>50</v>
       </c>
       <c r="M91" t="s">
-        <v>41</v>
-      </c>
-      <c r="N91">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N91" t="s">
+        <v>17</v>
+      </c>
+      <c r="O91">
+        <v>3.4696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
         <v>50</v>
       </c>
-      <c r="N92">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="N92" t="s">
+        <v>17</v>
+      </c>
+      <c r="O92">
+        <v>3.4652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J93" t="s">
         <v>50</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M93" t="s">
         <v>50</v>
       </c>
-      <c r="N93">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="N93" t="s">
+        <v>17</v>
+      </c>
+      <c r="O93">
+        <v>3.4609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s">
         <v>50</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M94" t="s">
-        <v>34</v>
-      </c>
-      <c r="N94">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N94" t="s">
+        <v>17</v>
+      </c>
+      <c r="O94">
+        <v>3.455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>41</v>
-      </c>
-      <c r="N95">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N95" t="s">
+        <v>17</v>
+      </c>
+      <c r="O95">
+        <v>3.4476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F96" t="s">
         <v>50</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M96" t="s">
-        <v>50</v>
-      </c>
-      <c r="N96">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="N96" t="s">
+        <v>17</v>
+      </c>
+      <c r="O96">
+        <v>3.4435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
         <v>50</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I97" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L97" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>73</v>
-      </c>
-      <c r="N97">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="N97" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97">
+        <v>3.4417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K98" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="L98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>73</v>
-      </c>
-      <c r="N98">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N98" t="s">
+        <v>17</v>
+      </c>
+      <c r="O98">
+        <v>3.425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L99" t="s">
         <v>16</v>
       </c>
       <c r="M99" t="s">
-        <v>41</v>
-      </c>
-      <c r="N99">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="N99" t="s">
+        <v>17</v>
+      </c>
+      <c r="O99">
+        <v>3.4174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L100" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M100" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100">
+        <v>42</v>
+      </c>
+      <c r="N100" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100">
+        <v>3.4043</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" t="s">
+        <v>50</v>
+      </c>
+      <c r="N101" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101">
         <v>3.4</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" t="s">
-        <v>50</v>
-      </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" t="s">
-        <v>50</v>
-      </c>
-      <c r="I101" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" t="s">
-        <v>15</v>
-      </c>
-      <c r="L101" t="s">
-        <v>73</v>
-      </c>
-      <c r="M101" t="s">
-        <v>41</v>
-      </c>
-      <c r="N101">
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" t="s">
+        <v>42</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" t="s">
+        <v>78</v>
+      </c>
+      <c r="M102" t="s">
+        <v>23</v>
+      </c>
+      <c r="N102" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102">
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
-      <c r="A102">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s">
-        <v>123</v>
-      </c>
-      <c r="C102" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" t="s">
-        <v>17</v>
-      </c>
-      <c r="I102" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" t="s">
-        <v>22</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
-      <c r="L102" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" t="s">
-        <v>50</v>
-      </c>
-      <c r="N102">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
         <v>50</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M103" t="s">
         <v>50</v>
       </c>
-      <c r="N103">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="N103" t="s">
+        <v>17</v>
+      </c>
+      <c r="O103">
+        <v>3.3739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M104" t="s">
-        <v>41</v>
-      </c>
-      <c r="N104">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N104" t="s">
+        <v>17</v>
+      </c>
+      <c r="O104">
+        <v>3.3478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L105" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M105" t="s">
         <v>50</v>
       </c>
-      <c r="N105">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="N105" t="s">
+        <v>17</v>
+      </c>
+      <c r="O105">
+        <v>3.3391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
         <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M106" t="s">
         <v>50</v>
       </c>
-      <c r="N106">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="N106" t="s">
+        <v>17</v>
+      </c>
+      <c r="O106">
+        <v>3.3348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F107" t="s">
         <v>50</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M107" t="s">
         <v>50</v>
       </c>
-      <c r="N107">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="N107" t="s">
+        <v>17</v>
+      </c>
+      <c r="O107">
+        <v>3.3348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
         <v>50</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M108" t="s">
         <v>50</v>
       </c>
-      <c r="N108">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="N108" t="s">
+        <v>17</v>
+      </c>
+      <c r="O108">
+        <v>3.3043</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L109" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="M109" t="s">
-        <v>34</v>
-      </c>
-      <c r="N109">
+        <v>35</v>
+      </c>
+      <c r="N109" t="s">
+        <v>17</v>
+      </c>
+      <c r="O109">
+        <v>3.2529</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" t="s">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s">
+        <v>42</v>
+      </c>
+      <c r="J110" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" t="s">
+        <v>16</v>
+      </c>
+      <c r="L110" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" t="s">
+        <v>35</v>
+      </c>
+      <c r="N110" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110">
         <v>3.25</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>132</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>77</v>
-      </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" t="s">
-        <v>50</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
-      </c>
-      <c r="L110" t="s">
-        <v>73</v>
-      </c>
-      <c r="M110" t="s">
-        <v>34</v>
-      </c>
-      <c r="N110">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M111" t="s">
-        <v>22</v>
-      </c>
-      <c r="N111">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>23</v>
+      </c>
+      <c r="N111" t="s">
+        <v>17</v>
+      </c>
+      <c r="O111">
+        <v>3.2391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J112" t="s">
         <v>50</v>
       </c>
       <c r="K112" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M112" t="s">
         <v>50</v>
       </c>
-      <c r="N112">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="N112" t="s">
+        <v>17</v>
+      </c>
+      <c r="O112">
+        <v>3.2217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M113" t="s">
         <v>50</v>
       </c>
-      <c r="N113">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="N113" t="s">
+        <v>17</v>
+      </c>
+      <c r="O113">
+        <v>3.2217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J114" t="s">
         <v>50</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M114" t="s">
-        <v>41</v>
-      </c>
-      <c r="N114">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N114" t="s">
+        <v>17</v>
+      </c>
+      <c r="O114">
+        <v>3.1706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M115" t="s">
-        <v>73</v>
-      </c>
-      <c r="N115">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>74</v>
+      </c>
+      <c r="N115" t="s">
+        <v>17</v>
+      </c>
+      <c r="O115">
+        <v>3.0957</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
         <v>139</v>
       </c>
-      <c r="C116" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" t="s">
-        <v>73</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" t="s">
-        <v>138</v>
-      </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K116" t="s">
         <v>50</v>
       </c>
       <c r="L116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M116" t="s">
         <v>50</v>
       </c>
-      <c r="N116">
-        <v>2.83</v>
+      <c r="N116" t="s">
+        <v>17</v>
+      </c>
+      <c r="O116">
+        <v>2.835</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="195">
   <si>
     <t>Rank</t>
   </si>
@@ -58,6 +58,9 @@
     <t>MA3014</t>
   </si>
   <si>
+    <t>EL2410</t>
+  </si>
+  <si>
     <t>SGPA</t>
   </si>
   <si>
@@ -292,6 +295,9 @@
     <t>230507</t>
   </si>
   <si>
+    <t>230013</t>
+  </si>
+  <si>
     <t>230052</t>
   </si>
   <si>
@@ -307,9 +313,6 @@
     <t>230375</t>
   </si>
   <si>
-    <t>230013</t>
-  </si>
-  <si>
     <t>230654</t>
   </si>
   <si>
@@ -509,6 +512,9 @@
   </si>
   <si>
     <t>2(40.0%)</t>
+  </si>
+  <si>
+    <t>1(100.0%)</t>
   </si>
   <si>
     <t>4(20.0%)</t>
@@ -924,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD116"/>
+  <dimension ref="A1:AF116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,94 +982,100 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AF1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="T2" t="s">
         <v>142</v>
@@ -1098,58 +1110,64 @@
       <c r="AD2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s">
         <v>154</v>
@@ -1184,5744 +1202,6122 @@
       <c r="AD3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4">
         <v>4</v>
       </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="W4" t="s">
         <v>168</v>
       </c>
       <c r="X4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z4" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="AB4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="AC4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AD4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>174</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
       <c r="S5" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="U5" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="V5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W5" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="X5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="Y5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AD5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>157</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
         <v>3.9739</v>
       </c>
-      <c r="R6" t="s">
-        <v>50</v>
-      </c>
       <c r="S6" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="V6" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="X6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Y6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Z6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AA6" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="AB6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AD6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>176</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
         <v>3.9609</v>
       </c>
-      <c r="R7" t="s">
-        <v>74</v>
-      </c>
       <c r="S7" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="V7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="W7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="X7" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="Y7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="Z7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>182</v>
-      </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>185</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8">
         <v>3.9609</v>
       </c>
-      <c r="R8" t="s">
-        <v>78</v>
-      </c>
       <c r="S8" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="V8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="W8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="X8" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="Y8" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="Z8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA8" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="AB8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="AD8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
         <v>3.9609</v>
       </c>
-      <c r="R9" t="s">
-        <v>126</v>
-      </c>
       <c r="S9" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="T9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB9" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="AD9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10">
         <v>3.9609</v>
       </c>
-      <c r="R10" t="s">
-        <v>139</v>
-      </c>
       <c r="S10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="T10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V10" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="W10" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="X10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB10" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="AC10" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="AD10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11">
+        <v>18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11">
         <v>3.9609</v>
       </c>
-      <c r="R11" t="s">
-        <v>189</v>
-      </c>
       <c r="S11" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="T11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12">
         <v>3.9609</v>
       </c>
-      <c r="R12" t="s">
-        <v>190</v>
-      </c>
       <c r="S12" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="T12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
         <v>3.9571</v>
       </c>
-      <c r="R13" t="s">
-        <v>191</v>
-      </c>
       <c r="S13" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="T13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
         <v>3.9571</v>
       </c>
-      <c r="R14" t="s">
-        <v>192</v>
-      </c>
       <c r="S14" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="T14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>152</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15">
         <v>3.9571</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16">
         <v>3.955</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17">
+        <v>18</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17">
         <v>3.95</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18">
         <v>3.9375</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19">
         <v>3.925</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20">
         <v>3.925</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21">
         <v>3.9217</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22">
         <v>3.9217</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23">
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24">
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25">
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
         <v>3.8957</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27">
         <v>3.895</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28">
         <v>3.8846</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29">
+        <v>19</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29">
         <v>3.8826</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30">
         <v>3.8739</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31">
         <v>3.8739</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32">
         <v>3.8739</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33">
+        <v>18</v>
+      </c>
+      <c r="O33" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33">
         <v>3.8696</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N34" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34">
         <v>3.8625</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35">
         <v>3.85</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O36">
+        <v>17</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36">
         <v>3.8478</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37">
         <v>3.8478</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38">
         <v>3.8304</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
-        <v>17</v>
-      </c>
-      <c r="O39">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39">
         <v>3.8304</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N40" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40">
         <v>3.8269</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41">
+        <v>18</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P41">
         <v>3.8217</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N42" t="s">
-        <v>17</v>
-      </c>
-      <c r="O42">
+        <v>18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P42">
         <v>3.8043</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>17</v>
-      </c>
-      <c r="O43">
+        <v>18</v>
+      </c>
+      <c r="O43" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43">
         <v>3.8043</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>17</v>
-      </c>
-      <c r="O44">
+        <v>18</v>
+      </c>
+      <c r="O44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44">
         <v>3.7913</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N45" t="s">
-        <v>17</v>
-      </c>
-      <c r="O45">
+        <v>18</v>
+      </c>
+      <c r="O45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P45">
         <v>3.79</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
-      </c>
-      <c r="O46">
+        <v>18</v>
+      </c>
+      <c r="O46" t="s">
+        <v>18</v>
+      </c>
+      <c r="P46">
         <v>3.78</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N47" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47">
+        <v>18</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47">
         <v>3.7652</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O48">
+        <v>18</v>
+      </c>
+      <c r="O48" t="s">
+        <v>18</v>
+      </c>
+      <c r="P48">
         <v>3.7571</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N49" t="s">
-        <v>17</v>
-      </c>
-      <c r="O49">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49">
         <v>3.75</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
-      </c>
-      <c r="O50">
+        <v>18</v>
+      </c>
+      <c r="O50" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50">
         <v>3.7391</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51">
+        <v>18</v>
+      </c>
+      <c r="O51" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51">
         <v>3.7304</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52">
+        <v>18</v>
+      </c>
+      <c r="O52" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52">
         <v>3.7217</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53">
+        <v>18</v>
+      </c>
+      <c r="O53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53">
         <v>3.7217</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N54" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54">
+        <v>18</v>
+      </c>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54">
         <v>3.7143</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55">
+        <v>18</v>
+      </c>
+      <c r="O55" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55">
         <v>3.713</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N56" t="s">
-        <v>17</v>
-      </c>
-      <c r="O56">
+        <v>18</v>
+      </c>
+      <c r="O56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56">
         <v>3.713</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N57" t="s">
-        <v>17</v>
-      </c>
-      <c r="O57">
+        <v>18</v>
+      </c>
+      <c r="O57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57">
         <v>3.7043</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N58" t="s">
-        <v>17</v>
-      </c>
-      <c r="O58">
+        <v>18</v>
+      </c>
+      <c r="O58" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58">
         <v>3.7043</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N59" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59">
+        <v>19</v>
+      </c>
+      <c r="O59" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59">
         <v>3.7</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N60" t="s">
-        <v>17</v>
-      </c>
-      <c r="O60">
+        <v>18</v>
+      </c>
+      <c r="O60" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60">
         <v>3.6913</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N61" t="s">
-        <v>17</v>
-      </c>
-      <c r="O61">
+        <v>18</v>
+      </c>
+      <c r="O61" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61">
         <v>3.6905</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N62" t="s">
-        <v>17</v>
-      </c>
-      <c r="O62">
+        <v>18</v>
+      </c>
+      <c r="O62" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62">
         <v>3.6783</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N63" t="s">
-        <v>17</v>
-      </c>
-      <c r="O63">
+        <v>18</v>
+      </c>
+      <c r="O63" t="s">
+        <v>18</v>
+      </c>
+      <c r="P63">
         <v>3.6783</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N64" t="s">
-        <v>17</v>
-      </c>
-      <c r="O64">
+        <v>18</v>
+      </c>
+      <c r="O64" t="s">
+        <v>18</v>
+      </c>
+      <c r="P64">
         <v>3.6739</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N65" t="s">
-        <v>17</v>
-      </c>
-      <c r="O65">
+        <v>18</v>
+      </c>
+      <c r="O65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65">
         <v>3.6714</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N66" t="s">
-        <v>17</v>
-      </c>
-      <c r="O66">
+        <v>18</v>
+      </c>
+      <c r="O66" t="s">
+        <v>18</v>
+      </c>
+      <c r="P66">
         <v>3.6652</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N67" t="s">
-        <v>17</v>
-      </c>
-      <c r="O67">
+        <v>18</v>
+      </c>
+      <c r="O67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P67">
         <v>3.6609</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N68" t="s">
-        <v>17</v>
-      </c>
-      <c r="O68">
+        <v>18</v>
+      </c>
+      <c r="O68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P68">
         <v>3.6522</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N69" t="s">
-        <v>17</v>
-      </c>
-      <c r="O69">
+        <v>18</v>
+      </c>
+      <c r="O69" t="s">
+        <v>18</v>
+      </c>
+      <c r="P69">
         <v>3.645</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N70" t="s">
-        <v>17</v>
-      </c>
-      <c r="O70">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="O70" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>3.6385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="K71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L71" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M71" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N71" t="s">
-        <v>17</v>
-      </c>
-      <c r="O71">
-        <v>3.619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="O71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P71">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N72" t="s">
-        <v>17</v>
-      </c>
-      <c r="O72">
-        <v>3.613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="O72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72">
+        <v>3.619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N73" t="s">
-        <v>17</v>
-      </c>
-      <c r="O73">
+        <v>18</v>
+      </c>
+      <c r="O73" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73">
+        <v>3.613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>51</v>
+      </c>
+      <c r="M74" t="s">
+        <v>36</v>
+      </c>
+      <c r="N74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P74">
         <v>3.6</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" t="s">
-        <v>50</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" t="s">
-        <v>23</v>
-      </c>
-      <c r="K74" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" t="s">
-        <v>42</v>
-      </c>
-      <c r="M74" t="s">
-        <v>23</v>
-      </c>
-      <c r="N74" t="s">
-        <v>17</v>
-      </c>
-      <c r="O74">
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" t="s">
+        <v>18</v>
+      </c>
+      <c r="P75">
         <v>3.6</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" t="s">
-        <v>50</v>
-      </c>
-      <c r="K75" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" t="s">
-        <v>74</v>
-      </c>
-      <c r="M75" t="s">
-        <v>18</v>
-      </c>
-      <c r="N75" t="s">
-        <v>17</v>
-      </c>
-      <c r="O75">
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" t="s">
+        <v>75</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76" t="s">
+        <v>18</v>
+      </c>
+      <c r="P76">
         <v>3.5913</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" t="s">
-        <v>50</v>
-      </c>
-      <c r="K76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M76" t="s">
-        <v>23</v>
-      </c>
-      <c r="N76" t="s">
-        <v>17</v>
-      </c>
-      <c r="O76">
-        <v>3.5913</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N77" t="s">
-        <v>17</v>
-      </c>
-      <c r="O77">
+        <v>18</v>
+      </c>
+      <c r="O77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77">
         <v>3.587</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N78" t="s">
-        <v>17</v>
-      </c>
-      <c r="O78">
+        <v>18</v>
+      </c>
+      <c r="O78" t="s">
+        <v>18</v>
+      </c>
+      <c r="P78">
         <v>3.587</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N79" t="s">
-        <v>17</v>
-      </c>
-      <c r="O79">
+        <v>18</v>
+      </c>
+      <c r="O79" t="s">
+        <v>18</v>
+      </c>
+      <c r="P79">
         <v>3.5609</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N80" t="s">
-        <v>17</v>
-      </c>
-      <c r="O80">
+        <v>18</v>
+      </c>
+      <c r="O80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P80">
         <v>3.5583</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N81" t="s">
-        <v>17</v>
-      </c>
-      <c r="O81">
+        <v>18</v>
+      </c>
+      <c r="O81" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81">
         <v>3.5471</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N82" t="s">
-        <v>17</v>
-      </c>
-      <c r="O82">
+        <v>18</v>
+      </c>
+      <c r="O82" t="s">
+        <v>18</v>
+      </c>
+      <c r="P82">
         <v>3.5435</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N83" t="s">
-        <v>17</v>
-      </c>
-      <c r="O83">
+        <v>18</v>
+      </c>
+      <c r="O83" t="s">
+        <v>18</v>
+      </c>
+      <c r="P83">
         <v>3.5435</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N84" t="s">
-        <v>17</v>
-      </c>
-      <c r="O84">
+        <v>18</v>
+      </c>
+      <c r="O84" t="s">
+        <v>18</v>
+      </c>
+      <c r="P84">
         <v>3.54</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N85" t="s">
-        <v>17</v>
-      </c>
-      <c r="O85">
+        <v>18</v>
+      </c>
+      <c r="O85" t="s">
+        <v>18</v>
+      </c>
+      <c r="P85">
         <v>3.5261</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M86" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N86" t="s">
-        <v>17</v>
-      </c>
-      <c r="O86">
+        <v>18</v>
+      </c>
+      <c r="O86" t="s">
+        <v>18</v>
+      </c>
+      <c r="P86">
         <v>3.5087</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N87" t="s">
-        <v>17</v>
-      </c>
-      <c r="O87">
+        <v>18</v>
+      </c>
+      <c r="O87" t="s">
+        <v>18</v>
+      </c>
+      <c r="P87">
         <v>3.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N88" t="s">
-        <v>17</v>
-      </c>
-      <c r="O88">
+        <v>18</v>
+      </c>
+      <c r="O88" t="s">
+        <v>18</v>
+      </c>
+      <c r="P88">
         <v>3.4957</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N89" t="s">
-        <v>17</v>
-      </c>
-      <c r="O89">
+        <v>18</v>
+      </c>
+      <c r="O89" t="s">
+        <v>18</v>
+      </c>
+      <c r="P89">
         <v>3.495</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N90" t="s">
-        <v>17</v>
-      </c>
-      <c r="O90">
+        <v>18</v>
+      </c>
+      <c r="O90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P90">
         <v>3.48</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N91" t="s">
-        <v>17</v>
-      </c>
-      <c r="O91">
+        <v>18</v>
+      </c>
+      <c r="O91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P91">
         <v>3.4696</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N92" t="s">
-        <v>17</v>
-      </c>
-      <c r="O92">
+        <v>18</v>
+      </c>
+      <c r="O92" t="s">
+        <v>18</v>
+      </c>
+      <c r="P92">
         <v>3.4652</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N93" t="s">
-        <v>17</v>
-      </c>
-      <c r="O93">
+        <v>18</v>
+      </c>
+      <c r="O93" t="s">
+        <v>18</v>
+      </c>
+      <c r="P93">
         <v>3.4609</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N94" t="s">
-        <v>17</v>
-      </c>
-      <c r="O94">
+        <v>18</v>
+      </c>
+      <c r="O94" t="s">
+        <v>18</v>
+      </c>
+      <c r="P94">
         <v>3.455</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N95" t="s">
-        <v>17</v>
-      </c>
-      <c r="O95">
+        <v>18</v>
+      </c>
+      <c r="O95" t="s">
+        <v>18</v>
+      </c>
+      <c r="P95">
         <v>3.4476</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N96" t="s">
-        <v>17</v>
-      </c>
-      <c r="O96">
+        <v>18</v>
+      </c>
+      <c r="O96" t="s">
+        <v>18</v>
+      </c>
+      <c r="P96">
         <v>3.4435</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N97" t="s">
-        <v>17</v>
-      </c>
-      <c r="O97">
+        <v>18</v>
+      </c>
+      <c r="O97" t="s">
+        <v>18</v>
+      </c>
+      <c r="P97">
         <v>3.4417</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J98" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N98" t="s">
-        <v>17</v>
-      </c>
-      <c r="O98">
+        <v>18</v>
+      </c>
+      <c r="O98" t="s">
+        <v>18</v>
+      </c>
+      <c r="P98">
         <v>3.425</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N99" t="s">
-        <v>17</v>
-      </c>
-      <c r="O99">
+        <v>18</v>
+      </c>
+      <c r="O99" t="s">
+        <v>18</v>
+      </c>
+      <c r="P99">
         <v>3.4174</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N100" t="s">
-        <v>17</v>
-      </c>
-      <c r="O100">
+        <v>18</v>
+      </c>
+      <c r="O100" t="s">
+        <v>18</v>
+      </c>
+      <c r="P100">
         <v>3.4043</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N101" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101">
+        <v>18</v>
+      </c>
+      <c r="O101" t="s">
+        <v>18</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N102" t="s">
-        <v>17</v>
-      </c>
-      <c r="O102">
+        <v>18</v>
+      </c>
+      <c r="O102" t="s">
+        <v>18</v>
+      </c>
+      <c r="P102">
         <v>3.4</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N103" t="s">
-        <v>17</v>
-      </c>
-      <c r="O103">
+        <v>18</v>
+      </c>
+      <c r="O103" t="s">
+        <v>18</v>
+      </c>
+      <c r="P103">
         <v>3.3739</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N104" t="s">
-        <v>17</v>
-      </c>
-      <c r="O104">
+        <v>18</v>
+      </c>
+      <c r="O104" t="s">
+        <v>18</v>
+      </c>
+      <c r="P104">
         <v>3.3478</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N105" t="s">
-        <v>17</v>
-      </c>
-      <c r="O105">
+        <v>18</v>
+      </c>
+      <c r="O105" t="s">
+        <v>18</v>
+      </c>
+      <c r="P105">
         <v>3.3391</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N106" t="s">
-        <v>17</v>
-      </c>
-      <c r="O106">
+        <v>18</v>
+      </c>
+      <c r="O106" t="s">
+        <v>18</v>
+      </c>
+      <c r="P106">
         <v>3.3348</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J107" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L107" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N107" t="s">
-        <v>17</v>
-      </c>
-      <c r="O107">
+        <v>18</v>
+      </c>
+      <c r="O107" t="s">
+        <v>18</v>
+      </c>
+      <c r="P107">
         <v>3.3348</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N108" t="s">
-        <v>17</v>
-      </c>
-      <c r="O108">
+        <v>18</v>
+      </c>
+      <c r="O108" t="s">
+        <v>18</v>
+      </c>
+      <c r="P108">
         <v>3.3043</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L109" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N109" t="s">
-        <v>17</v>
-      </c>
-      <c r="O109">
+        <v>18</v>
+      </c>
+      <c r="O109" t="s">
+        <v>18</v>
+      </c>
+      <c r="P109">
         <v>3.2529</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N110" t="s">
-        <v>17</v>
-      </c>
-      <c r="O110">
+        <v>18</v>
+      </c>
+      <c r="O110" t="s">
+        <v>18</v>
+      </c>
+      <c r="P110">
         <v>3.25</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N111" t="s">
-        <v>17</v>
-      </c>
-      <c r="O111">
+        <v>18</v>
+      </c>
+      <c r="O111" t="s">
+        <v>18</v>
+      </c>
+      <c r="P111">
         <v>3.2391</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K112" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N112" t="s">
-        <v>17</v>
-      </c>
-      <c r="O112">
+        <v>18</v>
+      </c>
+      <c r="O112" t="s">
+        <v>18</v>
+      </c>
+      <c r="P112">
         <v>3.2217</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N113" t="s">
-        <v>17</v>
-      </c>
-      <c r="O113">
+        <v>18</v>
+      </c>
+      <c r="O113" t="s">
+        <v>18</v>
+      </c>
+      <c r="P113">
         <v>3.2217</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L114" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N114" t="s">
-        <v>17</v>
-      </c>
-      <c r="O114">
+        <v>18</v>
+      </c>
+      <c r="O114" t="s">
+        <v>18</v>
+      </c>
+      <c r="P114">
         <v>3.1706</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M115" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N115" t="s">
-        <v>17</v>
-      </c>
-      <c r="O115">
+        <v>18</v>
+      </c>
+      <c r="O115" t="s">
+        <v>18</v>
+      </c>
+      <c r="P115">
         <v>3.0957</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
         <v>140</v>
       </c>
-      <c r="C116" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" t="s">
-        <v>74</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>139</v>
-      </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L116" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N116" t="s">
-        <v>17</v>
-      </c>
-      <c r="O116">
+        <v>18</v>
+      </c>
+      <c r="O116" t="s">
+        <v>18</v>
+      </c>
+      <c r="P116">
         <v>2.835</v>
       </c>
     </row>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -184,6 +184,9 @@
     <t>230322</t>
   </si>
   <si>
+    <t>230486</t>
+  </si>
+  <si>
     <t>230065</t>
   </si>
   <si>
@@ -199,9 +202,6 @@
     <t>230687</t>
   </si>
   <si>
-    <t>230486</t>
-  </si>
-  <si>
     <t>230212</t>
   </si>
   <si>
@@ -220,6 +220,9 @@
     <t>230218</t>
   </si>
   <si>
+    <t>230180</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
     <t>230238</t>
   </si>
   <si>
-    <t>230180</t>
-  </si>
-  <si>
     <t>230321</t>
   </si>
   <si>
@@ -301,6 +301,9 @@
     <t>230052</t>
   </si>
   <si>
+    <t>230164</t>
+  </si>
+  <si>
     <t>230077</t>
   </si>
   <si>
@@ -319,9 +322,6 @@
     <t>230502</t>
   </si>
   <si>
-    <t>230164</t>
-  </si>
-  <si>
     <t>230063</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>230563</t>
   </si>
   <si>
+    <t>230636</t>
+  </si>
+  <si>
     <t>230183</t>
   </si>
   <si>
     <t>230203</t>
   </si>
   <si>
-    <t>230636</t>
-  </si>
-  <si>
     <t>230224</t>
   </si>
   <si>
@@ -484,7 +484,7 @@
     <t>36(31.3%)</t>
   </si>
   <si>
-    <t>63(63.0%)</t>
+    <t>67(67.0%)</t>
   </si>
   <si>
     <t>22(19.1%)</t>
@@ -523,7 +523,7 @@
     <t>21(18.3%)</t>
   </si>
   <si>
-    <t>12(12.0%)</t>
+    <t>8(8.0%)</t>
   </si>
   <si>
     <t>7(6.1%)</t>
@@ -3229,13 +3229,13 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>43</v>
@@ -3253,13 +3253,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N35" t="s">
         <v>18</v>
@@ -3268,7 +3268,7 @@
         <v>18</v>
       </c>
       <c r="P35">
-        <v>3.85</v>
+        <v>3.8615</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3282,48 +3282,48 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O36" t="s">
         <v>18</v>
       </c>
       <c r="P36">
-        <v>3.8478</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>58</v>
@@ -3338,31 +3338,31 @@
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O37" t="s">
         <v>18</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
@@ -3382,7 +3382,7 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -3394,19 +3394,19 @@
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M38" t="s">
         <v>24</v>
@@ -3418,12 +3418,12 @@
         <v>18</v>
       </c>
       <c r="P38">
-        <v>3.8304</v>
+        <v>3.8478</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>60</v>
@@ -3432,34 +3432,34 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
@@ -3473,31 +3473,31 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -3506,10 +3506,10 @@
         <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -3518,7 +3518,7 @@
         <v>18</v>
       </c>
       <c r="P40">
-        <v>3.8269</v>
+        <v>3.8304</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3832,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -3850,7 +3850,7 @@
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -3868,7 +3868,7 @@
         <v>18</v>
       </c>
       <c r="P47">
-        <v>3.7652</v>
+        <v>3.7783</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3879,16 +3879,16 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -3897,19 +3897,19 @@
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N48" t="s">
         <v>18</v>
@@ -3918,7 +3918,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <v>3.7571</v>
+        <v>3.7652</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3932,13 +3932,13 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -3947,10 +3947,10 @@
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
@@ -3959,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -3968,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="P49">
-        <v>3.75</v>
+        <v>3.7571</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3979,16 +3979,16 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -3997,16 +3997,16 @@
         <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J50" t="s">
         <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
         <v>24</v>
@@ -4018,7 +4018,7 @@
         <v>18</v>
       </c>
       <c r="P50">
-        <v>3.7391</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -5079,37 +5079,37 @@
         <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M72" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N72" t="s">
         <v>18</v>
@@ -5118,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="P72">
-        <v>3.619</v>
+        <v>3.6261</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5129,37 +5129,37 @@
         <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
       </c>
       <c r="L73" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N73" t="s">
         <v>18</v>
@@ -5168,7 +5168,7 @@
         <v>18</v>
       </c>
       <c r="P73">
-        <v>3.613</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5182,25 +5182,25 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -5209,7 +5209,7 @@
         <v>51</v>
       </c>
       <c r="M74" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N74" t="s">
         <v>18</v>
@@ -5218,12 +5218,12 @@
         <v>18</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>3.613</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>98</v>
@@ -5232,34 +5232,34 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s">
         <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L75" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N75" t="s">
         <v>18</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
@@ -5282,16 +5282,16 @@
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
         <v>24</v>
@@ -5300,13 +5300,13 @@
         <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
       </c>
       <c r="L76" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M76" t="s">
         <v>24</v>
@@ -5318,7 +5318,7 @@
         <v>18</v>
       </c>
       <c r="P76">
-        <v>3.5913</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5332,34 +5332,34 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
         <v>75</v>
       </c>
       <c r="M77" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N77" t="s">
         <v>18</v>
@@ -5368,12 +5368,12 @@
         <v>18</v>
       </c>
       <c r="P77">
-        <v>3.587</v>
+        <v>3.5913</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>101</v>
@@ -5382,7 +5382,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>24</v>
@@ -5391,25 +5391,25 @@
         <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="M78" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N78" t="s">
         <v>18</v>
@@ -6932,10 +6932,10 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
         <v>79</v>
@@ -6944,22 +6944,22 @@
         <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L109" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M109" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N109" t="s">
         <v>18</v>
@@ -6968,7 +6968,7 @@
         <v>18</v>
       </c>
       <c r="P109">
-        <v>3.2529</v>
+        <v>3.2783</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6985,28 +6985,28 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
         <v>79</v>
       </c>
       <c r="G110" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
       </c>
       <c r="I110" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J110" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L110" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M110" t="s">
         <v>36</v>
@@ -7018,7 +7018,7 @@
         <v>18</v>
       </c>
       <c r="P110">
-        <v>3.25</v>
+        <v>3.2529</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7032,34 +7032,34 @@
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
         <v>79</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J111" t="s">
         <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L111" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M111" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N111" t="s">
         <v>18</v>
@@ -7068,7 +7068,7 @@
         <v>18</v>
       </c>
       <c r="P111">
-        <v>3.2391</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="112" spans="1:16">

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="196">
   <si>
     <t>Rank</t>
   </si>
@@ -121,327 +121,327 @@
     <t>230108</t>
   </si>
   <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>230318</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>230121</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230355</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>230566</t>
+  </si>
+  <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
+    <t>230186</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>230659</t>
+  </si>
+  <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>230100</t>
+  </si>
+  <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
+    <t>230300</t>
+  </si>
+  <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>230195</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>230697</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>230539</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>230375</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>230063</t>
+  </si>
+  <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>230470</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>230407</t>
+  </si>
+  <si>
+    <t>230458</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>230259</t>
+  </si>
+  <si>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>230495</t>
+  </si>
+  <si>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>230229</t>
+  </si>
+  <si>
+    <t>230735</t>
+  </si>
+  <si>
     <t>230689</t>
   </si>
   <si>
     <t>I-we</t>
   </si>
   <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>230318</t>
-  </si>
-  <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>230544</t>
-  </si>
-  <si>
-    <t>230121</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230355</t>
-  </si>
-  <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>230566</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>230486</t>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>230065</t>
   </si>
   <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>230536</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>230659</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>230444</t>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>230395</t>
+  </si>
+  <si>
+    <t>230493</t>
+  </si>
+  <si>
+    <t>230563</t>
+  </si>
+  <si>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>230564</t>
   </si>
   <si>
     <t>230238</t>
   </si>
   <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>230100</t>
-  </si>
-  <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>230130</t>
-  </si>
-  <si>
-    <t>230300</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>230195</t>
-  </si>
-  <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>230697</t>
-  </si>
-  <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>230539</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>230077</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
     <t>230280</t>
   </si>
   <si>
-    <t>230375</t>
-  </si>
-  <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>230063</t>
-  </si>
-  <si>
-    <t>230012</t>
+    <t>230268</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>230520</t>
   </si>
   <si>
     <t>230581</t>
   </si>
   <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>230470</t>
-  </si>
-  <si>
-    <t>230147</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
-    <t>230526</t>
-  </si>
-  <si>
-    <t>230520</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>230458</t>
-  </si>
-  <si>
-    <t>230208</t>
-  </si>
-  <si>
     <t>230020</t>
   </si>
   <si>
-    <t>230259</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>230495</t>
-  </si>
-  <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>230527</t>
-  </si>
-  <si>
-    <t>230395</t>
-  </si>
-  <si>
-    <t>230493</t>
-  </si>
-  <si>
-    <t>230563</t>
-  </si>
-  <si>
-    <t>230636</t>
+    <t>230449</t>
+  </si>
+  <si>
+    <t>230203</t>
   </si>
   <si>
     <t>230183</t>
   </si>
   <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>230564</t>
-  </si>
-  <si>
     <t>230730</t>
   </si>
   <si>
-    <t>230268</t>
-  </si>
-  <si>
-    <t>C-</t>
-  </si>
-  <si>
-    <t>230449</t>
-  </si>
-  <si>
     <t>3(15.0%)</t>
   </si>
   <si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>2(2.0%)</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
         <v>152</v>
@@ -1440,10 +1443,10 @@
         <v>18</v>
       </c>
       <c r="P6">
-        <v>3.9739</v>
+        <v>3.973</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
         <v>152</v>
@@ -1532,10 +1535,10 @@
         <v>18</v>
       </c>
       <c r="P7">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
         <v>152</v>
@@ -1624,10 +1627,10 @@
         <v>18</v>
       </c>
       <c r="P8">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s">
         <v>152</v>
@@ -1716,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="P9">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T9" t="s">
         <v>152</v>
@@ -1808,10 +1811,10 @@
         <v>18</v>
       </c>
       <c r="P10">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="T10" t="s">
         <v>152</v>
@@ -1900,7 +1903,7 @@
         <v>18</v>
       </c>
       <c r="P11">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S11" t="s">
         <v>191</v>
@@ -1992,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="P12">
-        <v>3.9609</v>
+        <v>3.96</v>
       </c>
       <c r="S12" t="s">
         <v>192</v>
@@ -2084,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="P13">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="S13" t="s">
         <v>193</v>
@@ -2176,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="P14">
-        <v>3.9571</v>
+        <v>3.957</v>
       </c>
       <c r="S14" t="s">
         <v>194</v>
@@ -2268,7 +2271,49 @@
         <v>18</v>
       </c>
       <c r="P15">
-        <v>3.9571</v>
+        <v>3.957</v>
+      </c>
+      <c r="S15" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" t="s">
+        <v>195</v>
+      </c>
+      <c r="W15" t="s">
+        <v>182</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2318,7 +2363,7 @@
         <v>18</v>
       </c>
       <c r="P16">
-        <v>3.955</v>
+        <v>3.954</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2332,25 +2377,25 @@
         <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
@@ -2359,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
         <v>18</v>
@@ -2368,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2376,34 +2421,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -2418,7 +2463,7 @@
         <v>18</v>
       </c>
       <c r="P18">
-        <v>3.9375</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2426,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -2468,36 +2513,36 @@
         <v>18</v>
       </c>
       <c r="P19">
-        <v>3.925</v>
+        <v>3.924</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2506,10 +2551,10 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
         <v>18</v>
@@ -2518,45 +2563,45 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <v>3.925</v>
+        <v>3.921</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2568,30 +2613,30 @@
         <v>18</v>
       </c>
       <c r="P21">
-        <v>3.9217</v>
+        <v>3.921</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
@@ -2600,16 +2645,16 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
         <v>18</v>
@@ -2618,12 +2663,12 @@
         <v>18</v>
       </c>
       <c r="P22">
-        <v>3.9217</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -2644,22 +2689,22 @@
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N23" t="s">
         <v>18</v>
@@ -2673,43 +2718,43 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N24" t="s">
         <v>18</v>
@@ -2718,21 +2763,21 @@
         <v>18</v>
       </c>
       <c r="P24">
-        <v>3.9</v>
+        <v>3.899</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -2744,10 +2789,10 @@
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -2756,7 +2801,7 @@
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M25" t="s">
         <v>24</v>
@@ -2768,27 +2813,27 @@
         <v>18</v>
       </c>
       <c r="P25">
-        <v>3.9</v>
+        <v>3.895</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
@@ -2797,19 +2842,19 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
         <v>18</v>
@@ -2818,7 +2863,7 @@
         <v>18</v>
       </c>
       <c r="P26">
-        <v>3.8957</v>
+        <v>3.895</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2826,40 +2871,40 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
         <v>18</v>
@@ -2868,7 +2913,7 @@
         <v>18</v>
       </c>
       <c r="P27">
-        <v>3.895</v>
+        <v>3.884</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2876,7 +2921,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
@@ -2885,40 +2930,40 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
         <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O28" t="s">
         <v>18</v>
       </c>
       <c r="P28">
-        <v>3.8846</v>
+        <v>3.882</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2926,54 +2971,54 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O29" t="s">
         <v>18</v>
       </c>
       <c r="P29">
-        <v>3.8826</v>
+        <v>3.873</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2988,16 +3033,16 @@
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -3006,7 +3051,7 @@
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
@@ -3018,15 +3063,15 @@
         <v>18</v>
       </c>
       <c r="P30">
-        <v>3.8739</v>
+        <v>3.873</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3035,13 +3080,13 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -3056,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -3068,36 +3113,36 @@
         <v>18</v>
       </c>
       <c r="P31">
-        <v>3.8739</v>
+        <v>3.873</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -3106,7 +3151,7 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
@@ -3118,7 +3163,7 @@
         <v>18</v>
       </c>
       <c r="P32">
-        <v>3.8739</v>
+        <v>3.869</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3126,16 +3171,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>24</v>
@@ -3144,22 +3189,22 @@
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s">
         <v>18</v>
@@ -3168,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="P33">
-        <v>3.8696</v>
+        <v>3.862</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3176,40 +3221,40 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N34" t="s">
         <v>18</v>
@@ -3218,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="P34">
-        <v>3.8625</v>
+        <v>3.861</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3226,90 +3271,90 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M35" t="s">
         <v>19</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O35" t="s">
         <v>18</v>
       </c>
       <c r="P35">
-        <v>3.8615</v>
+        <v>3.847</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M36" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N36" t="s">
         <v>18</v>
@@ -3318,7 +3363,7 @@
         <v>18</v>
       </c>
       <c r="P36">
-        <v>3.85</v>
+        <v>3.847</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3326,49 +3371,49 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
       </c>
       <c r="L37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O37" t="s">
         <v>18</v>
       </c>
       <c r="P37">
-        <v>3.8478</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3376,7 +3421,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3388,28 +3433,28 @@
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
@@ -3418,7 +3463,7 @@
         <v>18</v>
       </c>
       <c r="P38">
-        <v>3.8478</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3426,7 +3471,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3441,22 +3486,22 @@
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M39" t="s">
         <v>24</v>
@@ -3468,48 +3513,48 @@
         <v>18</v>
       </c>
       <c r="P39">
-        <v>3.8304</v>
+        <v>3.821</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M40" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -3518,30 +3563,30 @@
         <v>18</v>
       </c>
       <c r="P40">
-        <v>3.8304</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -3550,13 +3595,13 @@
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M41" t="s">
         <v>24</v>
@@ -3568,7 +3613,7 @@
         <v>18</v>
       </c>
       <c r="P41">
-        <v>3.8217</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3576,28 +3621,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -3609,7 +3654,7 @@
         <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
         <v>18</v>
@@ -3618,39 +3663,39 @@
         <v>18</v>
       </c>
       <c r="P42">
-        <v>3.8043</v>
+        <v>3.791</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -3668,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="P43">
-        <v>3.8043</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3676,40 +3721,40 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N44" t="s">
         <v>18</v>
@@ -3718,7 +3763,7 @@
         <v>18</v>
       </c>
       <c r="P44">
-        <v>3.7913</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3726,28 +3771,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
@@ -3768,7 +3813,7 @@
         <v>18</v>
       </c>
       <c r="P45">
-        <v>3.79</v>
+        <v>3.778</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3776,28 +3821,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -3806,7 +3851,7 @@
         <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
         <v>24</v>
@@ -3818,7 +3863,7 @@
         <v>18</v>
       </c>
       <c r="P46">
-        <v>3.78</v>
+        <v>3.765</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3826,19 +3871,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3847,19 +3892,19 @@
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N47" t="s">
         <v>18</v>
@@ -3868,7 +3913,7 @@
         <v>18</v>
       </c>
       <c r="P47">
-        <v>3.7783</v>
+        <v>3.757</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3876,28 +3921,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -3906,7 +3951,7 @@
         <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M48" t="s">
         <v>24</v>
@@ -3918,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <v>3.7652</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3926,40 +3971,40 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M49" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -3968,46 +4013,46 @@
         <v>18</v>
       </c>
       <c r="P49">
-        <v>3.7571</v>
+        <v>3.721</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>18</v>
-      </c>
       <c r="M50" t="s">
         <v>24</v>
       </c>
@@ -4018,7 +4063,7 @@
         <v>18</v>
       </c>
       <c r="P50">
-        <v>3.75</v>
+        <v>3.721</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4035,31 +4080,31 @@
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L51" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N51" t="s">
         <v>18</v>
@@ -4068,7 +4113,7 @@
         <v>18</v>
       </c>
       <c r="P51">
-        <v>3.7304</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4088,28 +4133,28 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
@@ -4118,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="P52">
-        <v>3.7217</v>
+        <v>3.713</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4132,34 +4177,34 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
         <v>24</v>
       </c>
       <c r="K53" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4168,7 +4213,7 @@
         <v>18</v>
       </c>
       <c r="P53">
-        <v>3.7217</v>
+        <v>3.713</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4182,34 +4227,34 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M54" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N54" t="s">
         <v>18</v>
@@ -4218,12 +4263,12 @@
         <v>18</v>
       </c>
       <c r="P54">
-        <v>3.7143</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -4235,31 +4280,31 @@
         <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="M55" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N55" t="s">
         <v>18</v>
@@ -4268,12 +4313,12 @@
         <v>18</v>
       </c>
       <c r="P55">
-        <v>3.713</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -4288,37 +4333,37 @@
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O56" t="s">
         <v>18</v>
       </c>
       <c r="P56">
-        <v>3.713</v>
+        <v>3.699</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4326,19 +4371,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -4350,16 +4395,16 @@
         <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N57" t="s">
         <v>18</v>
@@ -4368,15 +4413,15 @@
         <v>18</v>
       </c>
       <c r="P57">
-        <v>3.7043</v>
+        <v>3.691</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -4385,31 +4430,31 @@
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N58" t="s">
         <v>18</v>
@@ -4418,7 +4463,7 @@
         <v>18</v>
       </c>
       <c r="P58">
-        <v>3.7043</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4426,28 +4471,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -4456,60 +4501,60 @@
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O59" t="s">
         <v>18</v>
       </c>
       <c r="P59">
-        <v>3.7</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M60" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N60" t="s">
         <v>18</v>
@@ -4518,7 +4563,7 @@
         <v>18</v>
       </c>
       <c r="P60">
-        <v>3.6913</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4526,7 +4571,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -4538,28 +4583,28 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4568,7 +4613,7 @@
         <v>18</v>
       </c>
       <c r="P61">
-        <v>3.6905</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4576,28 +4621,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -4606,10 +4651,10 @@
         <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N62" t="s">
         <v>18</v>
@@ -4618,33 +4663,33 @@
         <v>18</v>
       </c>
       <c r="P62">
-        <v>3.6783</v>
+        <v>3.671</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -4653,13 +4698,13 @@
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N63" t="s">
         <v>18</v>
@@ -4668,7 +4713,7 @@
         <v>18</v>
       </c>
       <c r="P63">
-        <v>3.6783</v>
+        <v>3.665</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4676,7 +4721,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -4688,28 +4733,28 @@
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4718,7 +4763,7 @@
         <v>18</v>
       </c>
       <c r="P64">
-        <v>3.6739</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4726,7 +4771,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -4735,31 +4780,31 @@
         <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M65" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N65" t="s">
         <v>18</v>
@@ -4768,7 +4813,7 @@
         <v>18</v>
       </c>
       <c r="P65">
-        <v>3.6714</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4776,25 +4821,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
@@ -4803,13 +4848,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M66" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N66" t="s">
         <v>18</v>
@@ -4818,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="P66">
-        <v>3.6652</v>
+        <v>3.645</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4826,22 +4871,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
@@ -4850,25 +4895,25 @@
         <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K67" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M67" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
       </c>
       <c r="O67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P67">
-        <v>3.6609</v>
+        <v>3.638</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4876,25 +4921,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
@@ -4903,10 +4948,10 @@
         <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L68" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M68" t="s">
         <v>24</v>
@@ -4918,7 +4963,7 @@
         <v>18</v>
       </c>
       <c r="P68">
-        <v>3.6522</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4926,40 +4971,40 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N69" t="s">
         <v>18</v>
@@ -4968,7 +5013,7 @@
         <v>18</v>
       </c>
       <c r="P69">
-        <v>3.645</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4976,49 +5021,49 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="N70" t="s">
         <v>18</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P70">
-        <v>3.6385</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5026,40 +5071,40 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M71" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N71" t="s">
         <v>18</v>
@@ -5068,7 +5113,7 @@
         <v>18</v>
       </c>
       <c r="P71">
-        <v>3.63</v>
+        <v>3.613</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5076,22 +5121,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
         <v>24</v>
@@ -5103,13 +5148,13 @@
         <v>24</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L72" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M72" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N72" t="s">
         <v>18</v>
@@ -5118,7 +5163,7 @@
         <v>18</v>
       </c>
       <c r="P72">
-        <v>3.6261</v>
+        <v>3.599</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5126,40 +5171,40 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M73" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N73" t="s">
         <v>18</v>
@@ -5168,7 +5213,7 @@
         <v>18</v>
       </c>
       <c r="P73">
-        <v>3.619</v>
+        <v>3.591</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5176,22 +5221,22 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
         <v>18</v>
@@ -5200,16 +5245,16 @@
         <v>24</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
       </c>
       <c r="L74" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="M74" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N74" t="s">
         <v>18</v>
@@ -5218,7 +5263,7 @@
         <v>18</v>
       </c>
       <c r="P74">
-        <v>3.613</v>
+        <v>3.586</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5226,40 +5271,40 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N75" t="s">
         <v>18</v>
@@ -5268,30 +5313,30 @@
         <v>18</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
         <v>24</v>
@@ -5300,16 +5345,16 @@
         <v>18</v>
       </c>
       <c r="J76" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="L76" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N76" t="s">
         <v>18</v>
@@ -5318,7 +5363,7 @@
         <v>18</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>3.558</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5326,40 +5371,40 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L77" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M77" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="N77" t="s">
         <v>18</v>
@@ -5368,48 +5413,48 @@
         <v>18</v>
       </c>
       <c r="P77">
-        <v>3.5913</v>
+        <v>3.543</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="M78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N78" t="s">
         <v>18</v>
@@ -5418,7 +5463,7 @@
         <v>18</v>
       </c>
       <c r="P78">
-        <v>3.587</v>
+        <v>3.543</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5426,19 +5471,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -5447,16 +5492,16 @@
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M79" t="s">
         <v>24</v>
@@ -5468,7 +5513,7 @@
         <v>18</v>
       </c>
       <c r="P79">
-        <v>3.5609</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5476,40 +5521,40 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K80" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="L80" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N80" t="s">
         <v>18</v>
@@ -5518,7 +5563,7 @@
         <v>18</v>
       </c>
       <c r="P80">
-        <v>3.5583</v>
+        <v>3.526</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5526,40 +5571,40 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
       </c>
       <c r="J81" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L81" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M81" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="N81" t="s">
         <v>18</v>
@@ -5568,7 +5613,7 @@
         <v>18</v>
       </c>
       <c r="P81">
-        <v>3.5471</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5576,40 +5621,40 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K82" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M82" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="N82" t="s">
         <v>18</v>
@@ -5618,48 +5663,48 @@
         <v>18</v>
       </c>
       <c r="P82">
-        <v>3.5435</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M83" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N83" t="s">
         <v>18</v>
@@ -5668,7 +5713,7 @@
         <v>18</v>
       </c>
       <c r="P83">
-        <v>3.5435</v>
+        <v>3.495</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5676,22 +5721,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H84" t="s">
         <v>18</v>
@@ -5703,13 +5748,13 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L84" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M84" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N84" t="s">
         <v>18</v>
@@ -5718,7 +5763,7 @@
         <v>18</v>
       </c>
       <c r="P84">
-        <v>3.54</v>
+        <v>3.479</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5726,7 +5771,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -5735,31 +5780,31 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
         <v>75</v>
       </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s">
-        <v>18</v>
-      </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N85" t="s">
         <v>18</v>
@@ -5768,7 +5813,7 @@
         <v>18</v>
       </c>
       <c r="P85">
-        <v>3.5261</v>
+        <v>3.469</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5776,40 +5821,40 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="N86" t="s">
         <v>18</v>
@@ -5818,7 +5863,7 @@
         <v>18</v>
       </c>
       <c r="P86">
-        <v>3.5087</v>
+        <v>3.465</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5826,40 +5871,40 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M87" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="N87" t="s">
         <v>18</v>
@@ -5868,7 +5913,7 @@
         <v>18</v>
       </c>
       <c r="P87">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5876,22 +5921,22 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
         <v>18</v>
@@ -5903,13 +5948,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L88" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N88" t="s">
         <v>18</v>
@@ -5918,7 +5963,7 @@
         <v>18</v>
       </c>
       <c r="P88">
-        <v>3.4957</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5926,40 +5971,40 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J89" t="s">
         <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M89" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="N89" t="s">
         <v>18</v>
@@ -5968,7 +6013,7 @@
         <v>18</v>
       </c>
       <c r="P89">
-        <v>3.495</v>
+        <v>3.443</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5976,40 +6021,40 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L90" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N90" t="s">
         <v>18</v>
@@ -6018,7 +6063,7 @@
         <v>18</v>
       </c>
       <c r="P90">
-        <v>3.48</v>
+        <v>3.441</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6026,40 +6071,40 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K91" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="L91" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N91" t="s">
         <v>18</v>
@@ -6068,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="P91">
-        <v>3.4696</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6076,40 +6121,40 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N92" t="s">
         <v>18</v>
@@ -6118,7 +6163,7 @@
         <v>18</v>
       </c>
       <c r="P92">
-        <v>3.4652</v>
+        <v>3.417</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6126,40 +6171,40 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s">
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I93" t="s">
         <v>18</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
       </c>
       <c r="L93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M93" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N93" t="s">
         <v>18</v>
@@ -6168,7 +6213,7 @@
         <v>18</v>
       </c>
       <c r="P93">
-        <v>3.4609</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6176,7 +6221,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -6185,31 +6230,31 @@
         <v>75</v>
       </c>
       <c r="E94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K94" t="s">
         <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="N94" t="s">
         <v>18</v>
@@ -6218,7 +6263,7 @@
         <v>18</v>
       </c>
       <c r="P94">
-        <v>3.455</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6226,40 +6271,40 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I95" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K95" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M95" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N95" t="s">
         <v>18</v>
@@ -6268,7 +6313,7 @@
         <v>18</v>
       </c>
       <c r="P95">
-        <v>3.4476</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6276,41 +6321,41 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
         <v>119</v>
       </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
-      <c r="H96" t="s">
-        <v>18</v>
-      </c>
-      <c r="I96" t="s">
-        <v>43</v>
-      </c>
-      <c r="J96" t="s">
-        <v>24</v>
-      </c>
-      <c r="K96" t="s">
-        <v>24</v>
-      </c>
-      <c r="L96" t="s">
-        <v>75</v>
-      </c>
-      <c r="M96" t="s">
-        <v>75</v>
-      </c>
       <c r="N96" t="s">
         <v>18</v>
       </c>
@@ -6318,7 +6363,7 @@
         <v>18</v>
       </c>
       <c r="P96">
-        <v>3.4435</v>
+        <v>3.385</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6332,34 +6377,34 @@
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I97" t="s">
         <v>24</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L97" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="M97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N97" t="s">
         <v>18</v>
@@ -6368,7 +6413,7 @@
         <v>18</v>
       </c>
       <c r="P97">
-        <v>3.4417</v>
+        <v>3.373</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6376,40 +6421,40 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="L98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="N98" t="s">
         <v>18</v>
@@ -6418,21 +6463,21 @@
         <v>18</v>
       </c>
       <c r="P98">
-        <v>3.425</v>
+        <v>3.347</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
         <v>19</v>
@@ -6444,22 +6489,22 @@
         <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I99" t="s">
         <v>18</v>
       </c>
       <c r="J99" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K99" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L99" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M99" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="N99" t="s">
         <v>18</v>
@@ -6468,7 +6513,7 @@
         <v>18</v>
       </c>
       <c r="P99">
-        <v>3.4174</v>
+        <v>3.347</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6476,40 +6521,40 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
       </c>
       <c r="L100" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M100" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N100" t="s">
         <v>18</v>
@@ -6518,7 +6563,7 @@
         <v>18</v>
       </c>
       <c r="P100">
-        <v>3.4043</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6526,40 +6571,40 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K101" t="s">
         <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="M101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N101" t="s">
         <v>18</v>
@@ -6568,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="P101">
-        <v>3.4</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6576,40 +6621,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" t="s">
+        <v>24</v>
+      </c>
+      <c r="K102" t="s">
+        <v>71</v>
+      </c>
+      <c r="L102" t="s">
         <v>75</v>
       </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" t="s">
-        <v>43</v>
-      </c>
-      <c r="I102" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
-      <c r="L102" t="s">
-        <v>79</v>
-      </c>
       <c r="M102" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N102" t="s">
         <v>18</v>
@@ -6618,7 +6663,7 @@
         <v>18</v>
       </c>
       <c r="P102">
-        <v>3.4</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6626,22 +6671,22 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -6650,16 +6695,16 @@
         <v>24</v>
       </c>
       <c r="J103" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K103" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L103" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="M103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N103" t="s">
         <v>18</v>
@@ -6668,7 +6713,7 @@
         <v>18</v>
       </c>
       <c r="P103">
-        <v>3.3739</v>
+        <v>3.304</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6682,34 +6727,34 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G104" t="s">
         <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I104" t="s">
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K104" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L104" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M104" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N104" t="s">
         <v>18</v>
@@ -6718,7 +6763,7 @@
         <v>18</v>
       </c>
       <c r="P104">
-        <v>3.3478</v>
+        <v>3.278</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6732,34 +6777,34 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J105" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K105" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L105" t="s">
         <v>75</v>
       </c>
       <c r="M105" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N105" t="s">
         <v>18</v>
@@ -6768,12 +6813,12 @@
         <v>18</v>
       </c>
       <c r="P105">
-        <v>3.3391</v>
+        <v>3.221</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>130</v>
@@ -6782,34 +6827,34 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K106" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L106" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="M106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N106" t="s">
         <v>18</v>
@@ -6818,27 +6863,27 @@
         <v>18</v>
       </c>
       <c r="P106">
-        <v>3.3348</v>
+        <v>3.221</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -6853,13 +6898,13 @@
         <v>24</v>
       </c>
       <c r="K107" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="L107" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M107" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N107" t="s">
         <v>18</v>
@@ -6868,7 +6913,7 @@
         <v>18</v>
       </c>
       <c r="P107">
-        <v>3.3348</v>
+        <v>3.214</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6882,34 +6927,34 @@
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I108" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K108" t="s">
         <v>17</v>
       </c>
       <c r="L108" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M108" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="N108" t="s">
         <v>18</v>
@@ -6918,7 +6963,7 @@
         <v>18</v>
       </c>
       <c r="P108">
-        <v>3.3043</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6932,34 +6977,34 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" t="s">
         <v>75</v>
       </c>
-      <c r="E109" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" t="s">
-        <v>79</v>
-      </c>
       <c r="G109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H109" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K109" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="N109" t="s">
         <v>18</v>
@@ -6968,7 +7013,7 @@
         <v>18</v>
       </c>
       <c r="P109">
-        <v>3.2783</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6976,40 +7021,40 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C110" t="s">
         <v>18</v>
       </c>
       <c r="D110" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G110" t="s">
         <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K110" t="s">
         <v>19</v>
       </c>
       <c r="L110" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M110" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="N110" t="s">
         <v>18</v>
@@ -7018,7 +7063,7 @@
         <v>18</v>
       </c>
       <c r="P110">
-        <v>3.2529</v>
+        <v>3.039</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7026,19 +7071,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>24</v>
@@ -7047,19 +7092,19 @@
         <v>18</v>
       </c>
       <c r="I111" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J111" t="s">
         <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L111" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M111" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="N111" t="s">
         <v>18</v>
@@ -7068,7 +7113,7 @@
         <v>18</v>
       </c>
       <c r="P111">
-        <v>3.25</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7076,22 +7121,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
         <v>18</v>
@@ -7100,16 +7145,16 @@
         <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K112" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="L112" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M112" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="N112" t="s">
         <v>18</v>
@@ -7118,27 +7163,27 @@
         <v>18</v>
       </c>
       <c r="P112">
-        <v>3.2217</v>
+        <v>3.004</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -7147,19 +7192,19 @@
         <v>18</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="K113" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="L113" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="M113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N113" t="s">
         <v>18</v>
@@ -7168,7 +7213,7 @@
         <v>18</v>
       </c>
       <c r="P113">
-        <v>3.2217</v>
+        <v>2.835</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7176,40 +7221,40 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H114" t="s">
         <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="K114" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="N114" t="s">
         <v>18</v>
@@ -7218,7 +7263,7 @@
         <v>18</v>
       </c>
       <c r="P114">
-        <v>3.1706</v>
+        <v>2.785</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7226,40 +7271,40 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F115" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="K115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="M115" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="N115" t="s">
         <v>18</v>
@@ -7268,7 +7313,7 @@
         <v>18</v>
       </c>
       <c r="P115">
-        <v>3.0957</v>
+        <v>2.404</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7279,37 +7324,37 @@
         <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
         <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H116" t="s">
         <v>18</v>
       </c>
       <c r="I116" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J116" t="s">
+        <v>49</v>
+      </c>
+      <c r="K116" t="s">
+        <v>24</v>
+      </c>
+      <c r="L116" t="s">
         <v>75</v>
       </c>
-      <c r="K116" t="s">
-        <v>51</v>
-      </c>
-      <c r="L116" t="s">
-        <v>127</v>
-      </c>
       <c r="M116" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N116" t="s">
         <v>18</v>
@@ -7318,7 +7363,7 @@
         <v>18</v>
       </c>
       <c r="P116">
-        <v>2.835</v>
+        <v>2.343</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="197">
   <si>
     <t>Rank</t>
   </si>
@@ -346,21 +346,21 @@
     <t>230208</t>
   </si>
   <si>
+    <t>230261</t>
+  </si>
+  <si>
     <t>230259</t>
   </si>
   <si>
+    <t>230495</t>
+  </si>
+  <si>
     <t>230473</t>
   </si>
   <si>
     <t>230017</t>
   </si>
   <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>230495</t>
-  </si>
-  <si>
     <t>230175</t>
   </si>
   <si>
@@ -556,18 +556,24 @@
     <t>12(10.4%)</t>
   </si>
   <si>
+    <t>4(3.5%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
     <t>3(2.6%)</t>
   </si>
   <si>
-    <t>15(16.9%)</t>
+    <t>3(5.4%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
   </si>
   <si>
-    <t>3(5.4%)</t>
-  </si>
-  <si>
     <t>16(18.0%)</t>
   </si>
   <si>
@@ -575,9 +581,6 @@
   </si>
   <si>
     <t>2(3.6%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
   </si>
   <si>
     <t>8(9.0%)</t>
@@ -1544,7 +1547,7 @@
         <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="V7" t="s">
         <v>152</v>
@@ -1556,22 +1559,22 @@
         <v>152</v>
       </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z7" t="s">
         <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AB7" t="s">
         <v>180</v>
       </c>
       <c r="AC7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AD7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AE7" t="s">
         <v>152</v>
@@ -1636,7 +1639,7 @@
         <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
         <v>152</v>
@@ -1648,7 +1651,7 @@
         <v>152</v>
       </c>
       <c r="Y8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Z8" t="s">
         <v>152</v>
@@ -1657,10 +1660,10 @@
         <v>152</v>
       </c>
       <c r="AB8" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="AC8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AD8" t="s">
         <v>152</v>
@@ -1752,7 +1755,7 @@
         <v>152</v>
       </c>
       <c r="AC9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD9" t="s">
         <v>152</v>
@@ -1826,7 +1829,7 @@
         <v>152</v>
       </c>
       <c r="W10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="X10" t="s">
         <v>152</v>
@@ -1844,7 +1847,7 @@
         <v>152</v>
       </c>
       <c r="AC10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD10" t="s">
         <v>152</v>
@@ -1906,7 +1909,7 @@
         <v>3.96</v>
       </c>
       <c r="S11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="T11" t="s">
         <v>152</v>
@@ -1998,7 +2001,7 @@
         <v>3.96</v>
       </c>
       <c r="S12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T12" t="s">
         <v>152</v>
@@ -2090,7 +2093,7 @@
         <v>3.957</v>
       </c>
       <c r="S13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T13" t="s">
         <v>152</v>
@@ -2182,7 +2185,7 @@
         <v>3.957</v>
       </c>
       <c r="S14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T14" t="s">
         <v>152</v>
@@ -2283,10 +2286,10 @@
         <v>152</v>
       </c>
       <c r="V15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="X15" t="s">
         <v>152</v>
@@ -5927,16 +5930,16 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
         <v>18</v>
@@ -5945,10 +5948,10 @@
         <v>24</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="L88" t="s">
         <v>18</v>
@@ -5963,7 +5966,7 @@
         <v>18</v>
       </c>
       <c r="P88">
-        <v>3.447</v>
+        <v>3.458</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5974,37 +5977,37 @@
         <v>111</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J89" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L89" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="N89" t="s">
         <v>18</v>
@@ -6013,7 +6016,7 @@
         <v>18</v>
       </c>
       <c r="P89">
-        <v>3.443</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6027,34 +6030,34 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
         <v>41</v>
       </c>
       <c r="I90" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="N90" t="s">
         <v>18</v>
@@ -6063,49 +6066,49 @@
         <v>18</v>
       </c>
       <c r="P90">
-        <v>3.441</v>
+        <v>3.443</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>41</v>
+      </c>
+      <c r="J91" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" t="s">
+        <v>24</v>
+      </c>
+      <c r="L91" t="s">
         <v>71</v>
       </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" t="s">
-        <v>24</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="M91" t="s">
         <v>71</v>
       </c>
-      <c r="K91" t="s">
-        <v>75</v>
-      </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
-        <v>41</v>
-      </c>
       <c r="N91" t="s">
         <v>18</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>18</v>
       </c>
       <c r="P91">
-        <v>3.424</v>
+        <v>3.443</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6127,34 +6130,34 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
         <v>41</v>
       </c>
       <c r="I92" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J92" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="N92" t="s">
         <v>18</v>
@@ -6163,7 +6166,7 @@
         <v>18</v>
       </c>
       <c r="P92">
-        <v>3.417</v>
+        <v>3.441</v>
       </c>
     </row>
     <row r="93" spans="1:16">

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="199">
   <si>
     <t>Rank</t>
   </si>
@@ -121,6 +121,9 @@
     <t>230108</t>
   </si>
   <si>
+    <t>230159</t>
+  </si>
+  <si>
     <t>230469</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>230121</t>
   </si>
   <si>
+    <t>230486</t>
+  </si>
+  <si>
     <t>230680</t>
   </si>
   <si>
@@ -145,15 +151,15 @@
     <t>230355</t>
   </si>
   <si>
+    <t>230322</t>
+  </si>
+  <si>
     <t>230197</t>
   </si>
   <si>
     <t>230468</t>
   </si>
   <si>
-    <t>230159</t>
-  </si>
-  <si>
     <t>230566</t>
   </si>
   <si>
@@ -175,24 +181,24 @@
     <t>230186</t>
   </si>
   <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>230486</t>
-  </si>
-  <si>
     <t>230724</t>
   </si>
   <si>
     <t>230536</t>
   </si>
   <si>
+    <t>230521</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
     <t>230687</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
     <t>230212</t>
   </si>
   <si>
@@ -202,18 +208,18 @@
     <t>230417</t>
   </si>
   <si>
-    <t>230521</t>
-  </si>
-  <si>
     <t>230332</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
     <t>230180</t>
   </si>
   <si>
+    <t>230689</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
     <t>230327</t>
   </si>
   <si>
@@ -229,9 +235,6 @@
     <t>230211</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>230130</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
     <t>230375</t>
   </si>
   <si>
+    <t>230012</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
@@ -310,9 +316,6 @@
     <t>230063</t>
   </si>
   <si>
-    <t>230012</t>
-  </si>
-  <si>
     <t>230585</t>
   </si>
   <si>
@@ -325,6 +328,9 @@
     <t>230470</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
     <t>230147</t>
   </si>
   <si>
@@ -337,9 +343,6 @@
     <t>230016</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
     <t>230458</t>
   </si>
   <si>
@@ -361,6 +364,9 @@
     <t>230017</t>
   </si>
   <si>
+    <t>230520</t>
+  </si>
+  <si>
     <t>230175</t>
   </si>
   <si>
@@ -370,21 +376,18 @@
     <t>230735</t>
   </si>
   <si>
-    <t>230689</t>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>230065</t>
   </si>
   <si>
     <t>I-we</t>
   </si>
   <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
     <t>230033</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>C-</t>
   </si>
   <si>
-    <t>230520</t>
-  </si>
-  <si>
     <t>230581</t>
   </si>
   <si>
@@ -487,84 +487,87 @@
     <t>67(67.0%)</t>
   </si>
   <si>
+    <t>23(20.0%)</t>
+  </si>
+  <si>
+    <t>64(55.7%)</t>
+  </si>
+  <si>
+    <t>19(33.9%)</t>
+  </si>
+  <si>
+    <t>18(34.0%)</t>
+  </si>
+  <si>
+    <t>52(45.2%)</t>
+  </si>
+  <si>
+    <t>30(26.1%)</t>
+  </si>
+  <si>
+    <t>12(13.5%)</t>
+  </si>
+  <si>
+    <t>27(23.5%)</t>
+  </si>
+  <si>
+    <t>2(40.0%)</t>
+  </si>
+  <si>
+    <t>1(100.0%)</t>
+  </si>
+  <si>
+    <t>4(20.0%)</t>
+  </si>
+  <si>
+    <t>21(18.3%)</t>
+  </si>
+  <si>
+    <t>8(8.0%)</t>
+  </si>
+  <si>
+    <t>7(6.1%)</t>
+  </si>
+  <si>
+    <t>12(21.4%)</t>
+  </si>
+  <si>
+    <t>25(47.2%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>32(27.8%)</t>
+  </si>
+  <si>
+    <t>3(3.0%)</t>
+  </si>
+  <si>
+    <t>9(17.0%)</t>
+  </si>
+  <si>
+    <t>12(10.4%)</t>
+  </si>
+  <si>
+    <t>4(3.5%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>20(17.4%)</t>
+  </si>
+  <si>
     <t>22(19.1%)</t>
   </si>
   <si>
-    <t>64(55.7%)</t>
-  </si>
-  <si>
-    <t>18(32.1%)</t>
-  </si>
-  <si>
-    <t>18(34.0%)</t>
-  </si>
-  <si>
-    <t>52(45.2%)</t>
-  </si>
-  <si>
-    <t>30(26.1%)</t>
-  </si>
-  <si>
-    <t>12(13.5%)</t>
-  </si>
-  <si>
-    <t>26(22.6%)</t>
-  </si>
-  <si>
-    <t>2(40.0%)</t>
-  </si>
-  <si>
-    <t>1(100.0%)</t>
-  </si>
-  <si>
-    <t>4(20.0%)</t>
-  </si>
-  <si>
-    <t>21(18.3%)</t>
-  </si>
-  <si>
-    <t>8(8.0%)</t>
-  </si>
-  <si>
-    <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>13(23.2%)</t>
-  </si>
-  <si>
-    <t>25(47.2%)</t>
-  </si>
-  <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
-    <t>3(3.0%)</t>
-  </si>
-  <si>
-    <t>23(20.0%)</t>
-  </si>
-  <si>
-    <t>12(21.4%)</t>
-  </si>
-  <si>
-    <t>9(17.0%)</t>
-  </si>
-  <si>
-    <t>12(10.4%)</t>
-  </si>
-  <si>
-    <t>4(3.5%)</t>
-  </si>
-  <si>
-    <t>15(16.9%)</t>
-  </si>
-  <si>
     <t>1(0.9%)</t>
   </si>
   <si>
+    <t>24(20.9%)</t>
+  </si>
+  <si>
     <t>3(2.6%)</t>
   </si>
   <si>
@@ -575,6 +578,9 @@
   </si>
   <si>
     <t>16(18.0%)</t>
+  </si>
+  <si>
+    <t>6(5.2%)</t>
   </si>
   <si>
     <t>5(4.3%)</t>
@@ -1357,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
         <v>152</v>
@@ -1369,28 +1375,28 @@
         <v>175</v>
       </c>
       <c r="W5" t="s">
+        <v>157</v>
+      </c>
+      <c r="X5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z5" t="s">
         <v>176</v>
       </c>
-      <c r="X5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>177</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>179</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>180</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>157</v>
       </c>
       <c r="AE5" t="s">
         <v>152</v>
@@ -1449,7 +1455,7 @@
         <v>3.973</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
         <v>152</v>
@@ -1461,7 +1467,7 @@
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="X6" t="s">
         <v>152</v>
@@ -1482,7 +1488,7 @@
         <v>163</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE6" t="s">
         <v>152</v>
@@ -1541,13 +1547,13 @@
         <v>3.96</v>
       </c>
       <c r="S7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
         <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V7" t="s">
         <v>152</v>
@@ -1559,22 +1565,22 @@
         <v>152</v>
       </c>
       <c r="Y7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z7" t="s">
         <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE7" t="s">
         <v>152</v>
@@ -1633,13 +1639,13 @@
         <v>3.96</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
         <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="V8" t="s">
         <v>152</v>
@@ -1651,7 +1657,7 @@
         <v>152</v>
       </c>
       <c r="Y8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Z8" t="s">
         <v>152</v>
@@ -1663,7 +1669,7 @@
         <v>152</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD8" t="s">
         <v>152</v>
@@ -1755,7 +1761,7 @@
         <v>152</v>
       </c>
       <c r="AC9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AD9" t="s">
         <v>152</v>
@@ -1817,7 +1823,7 @@
         <v>3.96</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T10" t="s">
         <v>152</v>
@@ -1847,7 +1853,7 @@
         <v>152</v>
       </c>
       <c r="AC10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AD10" t="s">
         <v>152</v>
@@ -1909,7 +1915,7 @@
         <v>3.96</v>
       </c>
       <c r="S11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T11" t="s">
         <v>152</v>
@@ -2001,7 +2007,7 @@
         <v>3.96</v>
       </c>
       <c r="S12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T12" t="s">
         <v>152</v>
@@ -2093,7 +2099,7 @@
         <v>3.957</v>
       </c>
       <c r="S13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T13" t="s">
         <v>152</v>
@@ -2185,7 +2191,7 @@
         <v>3.957</v>
       </c>
       <c r="S14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="T14" t="s">
         <v>152</v>
@@ -2277,7 +2283,7 @@
         <v>3.957</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T15" t="s">
         <v>152</v>
@@ -2286,10 +2292,10 @@
         <v>152</v>
       </c>
       <c r="V15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="W15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s">
         <v>152</v>
@@ -2310,7 +2316,7 @@
         <v>152</v>
       </c>
       <c r="AD15" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="AE15" t="s">
         <v>152</v>
@@ -2371,43 +2377,43 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
         <v>18</v>
@@ -2416,7 +2422,7 @@
         <v>18</v>
       </c>
       <c r="P17">
-        <v>3.937</v>
+        <v>3.954</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2427,31 +2433,31 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -2466,7 +2472,7 @@
         <v>18</v>
       </c>
       <c r="P18">
-        <v>3.925</v>
+        <v>3.937</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2477,25 +2483,25 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2507,7 +2513,7 @@
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
         <v>18</v>
@@ -2516,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="P19">
-        <v>3.924</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2542,10 +2548,10 @@
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2554,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
         <v>24</v>
@@ -2566,12 +2572,12 @@
         <v>18</v>
       </c>
       <c r="P20">
-        <v>3.921</v>
+        <v>3.924</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
@@ -2580,31 +2586,31 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
         <v>24</v>
@@ -2621,7 +2627,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -2630,16 +2636,16 @@
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
@@ -2648,16 +2654,16 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
         <v>18</v>
@@ -2666,45 +2672,45 @@
         <v>18</v>
       </c>
       <c r="P22">
-        <v>3.9</v>
+        <v>3.921</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M23" t="s">
         <v>19</v>
@@ -2716,7 +2722,7 @@
         <v>18</v>
       </c>
       <c r="P23">
-        <v>3.9</v>
+        <v>3.907</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2724,22 +2730,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -2748,16 +2754,16 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
         <v>18</v>
@@ -2766,12 +2772,12 @@
         <v>18</v>
       </c>
       <c r="P24">
-        <v>3.899</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -2780,34 +2786,34 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
         <v>18</v>
@@ -2816,24 +2822,24 @@
         <v>18</v>
       </c>
       <c r="P25">
-        <v>3.895</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -2842,22 +2848,22 @@
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
         <v>18</v>
@@ -2866,7 +2872,7 @@
         <v>18</v>
       </c>
       <c r="P26">
-        <v>3.895</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2880,22 +2886,22 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2904,10 +2910,10 @@
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
         <v>18</v>
@@ -2916,7 +2922,7 @@
         <v>18</v>
       </c>
       <c r="P27">
-        <v>3.884</v>
+        <v>3.899</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2930,43 +2936,43 @@
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O28" t="s">
         <v>18</v>
       </c>
       <c r="P28">
-        <v>3.882</v>
+        <v>3.895</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2980,7 +2986,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -2992,7 +2998,7 @@
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
@@ -3004,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M29" t="s">
         <v>19</v>
@@ -3016,65 +3022,65 @@
         <v>18</v>
       </c>
       <c r="P29">
-        <v>3.873</v>
+        <v>3.884</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M30" t="s">
         <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
         <v>18</v>
       </c>
       <c r="P30">
-        <v>3.873</v>
+        <v>3.882</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -3083,19 +3089,19 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -3104,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M31" t="s">
         <v>19</v>
@@ -3121,7 +3127,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -3130,22 +3136,22 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
         <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -3154,7 +3160,7 @@
         <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M32" t="s">
         <v>19</v>
@@ -3166,12 +3172,12 @@
         <v>18</v>
       </c>
       <c r="P32">
-        <v>3.869</v>
+        <v>3.873</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>53</v>
@@ -3183,31 +3189,31 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
         <v>18</v>
@@ -3216,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="P33">
-        <v>3.862</v>
+        <v>3.873</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3227,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -3254,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
         <v>19</v>
@@ -3266,7 +3272,7 @@
         <v>18</v>
       </c>
       <c r="P34">
-        <v>3.861</v>
+        <v>3.869</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3286,7 +3292,7 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -3298,7 +3304,7 @@
         <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -3354,7 +3360,7 @@
         <v>17</v>
       </c>
       <c r="L36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M36" t="s">
         <v>24</v>
@@ -3380,10 +3386,10 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
         <v>19</v>
@@ -3392,19 +3398,19 @@
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M37" t="s">
         <v>24</v>
@@ -3416,12 +3422,12 @@
         <v>18</v>
       </c>
       <c r="P37">
-        <v>3.83</v>
+        <v>3.843</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>58</v>
@@ -3430,34 +3436,34 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
       </c>
       <c r="L38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s">
         <v>18</v>
@@ -3471,7 +3477,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
@@ -3480,13 +3486,13 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -3498,16 +3504,16 @@
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N39" t="s">
         <v>18</v>
@@ -3516,7 +3522,7 @@
         <v>18</v>
       </c>
       <c r="P39">
-        <v>3.821</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3527,22 +3533,22 @@
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -3551,13 +3557,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -3566,12 +3572,12 @@
         <v>18</v>
       </c>
       <c r="P40">
-        <v>3.804</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>61</v>
@@ -3580,16 +3586,16 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
@@ -3598,13 +3604,13 @@
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M41" t="s">
         <v>24</v>
@@ -3616,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="P41">
-        <v>3.804</v>
+        <v>3.821</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3630,22 +3636,22 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -3657,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N42" t="s">
         <v>18</v>
@@ -3666,39 +3672,39 @@
         <v>18</v>
       </c>
       <c r="P42">
-        <v>3.791</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
         <v>17</v>
@@ -3716,7 +3722,7 @@
         <v>18</v>
       </c>
       <c r="P43">
-        <v>3.79</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3727,7 +3733,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -3736,7 +3742,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3748,13 +3754,13 @@
         <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K44" t="s">
         <v>17</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M44" t="s">
         <v>24</v>
@@ -3766,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="P44">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3795,7 +3801,7 @@
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
@@ -3830,7 +3836,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -3839,25 +3845,25 @@
         <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
@@ -3866,7 +3872,7 @@
         <v>18</v>
       </c>
       <c r="P46">
-        <v>3.765</v>
+        <v>3.771</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3874,19 +3880,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3895,19 +3901,19 @@
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M47" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N47" t="s">
         <v>18</v>
@@ -3916,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="P47">
-        <v>3.757</v>
+        <v>3.765</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3924,40 +3930,40 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N48" t="s">
         <v>18</v>
@@ -3966,7 +3972,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <v>3.73</v>
+        <v>3.757</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3974,7 +3980,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -3986,28 +3992,28 @@
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M49" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -4016,15 +4022,15 @@
         <v>18</v>
       </c>
       <c r="P49">
-        <v>3.721</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -4039,25 +4045,25 @@
         <v>24</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -4071,7 +4077,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -4083,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>24</v>
@@ -4092,22 +4098,22 @@
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L51" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M51" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s">
         <v>18</v>
@@ -4116,7 +4122,7 @@
         <v>18</v>
       </c>
       <c r="P51">
-        <v>3.714</v>
+        <v>3.721</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4133,31 +4139,31 @@
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M52" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
@@ -4166,12 +4172,12 @@
         <v>18</v>
       </c>
       <c r="P52">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>74</v>
@@ -4180,34 +4186,34 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4221,43 +4227,43 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
         <v>76</v>
       </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>41</v>
-      </c>
       <c r="G54" t="s">
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N54" t="s">
         <v>18</v>
@@ -4266,12 +4272,12 @@
         <v>18</v>
       </c>
       <c r="P54">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>77</v>
@@ -4280,16 +4286,16 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -4301,13 +4307,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M55" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N55" t="s">
         <v>18</v>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -4330,43 +4336,43 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O56" t="s">
         <v>18</v>
       </c>
       <c r="P56">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4380,43 +4386,43 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M57" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O57" t="s">
         <v>18</v>
       </c>
       <c r="P57">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4430,34 +4436,34 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N58" t="s">
         <v>18</v>
@@ -4466,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="P58">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4486,28 +4492,28 @@
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N59" t="s">
         <v>18</v>
@@ -4516,12 +4522,12 @@
         <v>18</v>
       </c>
       <c r="P59">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
@@ -4530,22 +4536,22 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s">
         <v>19</v>
@@ -4554,10 +4560,10 @@
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M60" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N60" t="s">
         <v>18</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
@@ -4580,34 +4586,34 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M61" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4616,7 +4622,7 @@
         <v>18</v>
       </c>
       <c r="P61">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4630,34 +4636,34 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M62" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N62" t="s">
         <v>18</v>
@@ -4666,7 +4672,7 @@
         <v>18</v>
       </c>
       <c r="P62">
-        <v>3.671</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4680,34 +4686,34 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
       </c>
       <c r="K63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N63" t="s">
         <v>18</v>
@@ -4716,7 +4722,7 @@
         <v>18</v>
       </c>
       <c r="P63">
-        <v>3.665</v>
+        <v>3.671</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4736,28 +4742,28 @@
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L64" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="M64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4766,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="P64">
-        <v>3.66</v>
+        <v>3.665</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4780,34 +4786,34 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
         <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M65" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N65" t="s">
         <v>18</v>
@@ -4816,7 +4822,7 @@
         <v>18</v>
       </c>
       <c r="P65">
-        <v>3.652</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4827,37 +4833,37 @@
         <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M66" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N66" t="s">
         <v>18</v>
@@ -4866,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="P66">
-        <v>3.645</v>
+        <v>3.652</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4877,46 +4883,46 @@
         <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K67" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="M67" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N67" t="s">
         <v>18</v>
       </c>
       <c r="O67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P67">
-        <v>3.638</v>
+        <v>3.645</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4927,46 +4933,46 @@
         <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N68" t="s">
         <v>18</v>
       </c>
       <c r="O68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P68">
-        <v>3.63</v>
+        <v>3.638</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4977,22 +4983,22 @@
         <v>91</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
@@ -5001,13 +5007,13 @@
         <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M69" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N69" t="s">
         <v>18</v>
@@ -5016,7 +5022,7 @@
         <v>18</v>
       </c>
       <c r="P69">
-        <v>3.626</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5027,37 +5033,37 @@
         <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
       </c>
       <c r="L70" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M70" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N70" t="s">
         <v>18</v>
@@ -5066,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="P70">
-        <v>3.619</v>
+        <v>3.626</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5077,37 +5083,37 @@
         <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
       </c>
       <c r="L71" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N71" t="s">
         <v>18</v>
@@ -5116,7 +5122,7 @@
         <v>18</v>
       </c>
       <c r="P71">
-        <v>3.613</v>
+        <v>3.619</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5130,34 +5136,34 @@
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J72" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M72" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N72" t="s">
         <v>18</v>
@@ -5166,7 +5172,7 @@
         <v>18</v>
       </c>
       <c r="P72">
-        <v>3.599</v>
+        <v>3.613</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5180,16 +5186,16 @@
         <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
         <v>24</v>
@@ -5198,13 +5204,13 @@
         <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
         <v>19</v>
       </c>
       <c r="L73" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="M73" t="s">
         <v>24</v>
@@ -5216,7 +5222,7 @@
         <v>18</v>
       </c>
       <c r="P73">
-        <v>3.591</v>
+        <v>3.599</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5227,37 +5233,37 @@
         <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L74" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N74" t="s">
         <v>18</v>
@@ -5266,7 +5272,7 @@
         <v>18</v>
       </c>
       <c r="P74">
-        <v>3.586</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5280,31 +5286,31 @@
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s">
         <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M75" t="s">
         <v>24</v>
@@ -5316,7 +5322,7 @@
         <v>18</v>
       </c>
       <c r="P75">
-        <v>3.56</v>
+        <v>3.591</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5327,37 +5333,37 @@
         <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N76" t="s">
         <v>18</v>
@@ -5366,7 +5372,7 @@
         <v>18</v>
       </c>
       <c r="P76">
-        <v>3.558</v>
+        <v>3.586</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5380,34 +5386,34 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L77" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M77" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N77" t="s">
         <v>18</v>
@@ -5416,12 +5422,12 @@
         <v>18</v>
       </c>
       <c r="P77">
-        <v>3.543</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>100</v>
@@ -5430,34 +5436,34 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I78" t="s">
         <v>18</v>
       </c>
       <c r="J78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K78" t="s">
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N78" t="s">
         <v>18</v>
@@ -5471,43 +5477,43 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K79" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L79" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="M79" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N79" t="s">
         <v>18</v>
@@ -5516,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="P79">
-        <v>3.54</v>
+        <v>3.543</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5527,16 +5533,16 @@
         <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
         <v>19</v>
@@ -5545,19 +5551,19 @@
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M80" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N80" t="s">
         <v>18</v>
@@ -5566,7 +5572,7 @@
         <v>18</v>
       </c>
       <c r="P80">
-        <v>3.526</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5580,34 +5586,34 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="M81" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N81" t="s">
         <v>18</v>
@@ -5616,7 +5622,7 @@
         <v>18</v>
       </c>
       <c r="P81">
-        <v>3.508</v>
+        <v>3.526</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5630,34 +5636,34 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M82" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N82" t="s">
         <v>18</v>
@@ -5666,12 +5672,12 @@
         <v>18</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>105</v>
@@ -5680,34 +5686,34 @@
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I83" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L83" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="M83" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N83" t="s">
         <v>18</v>
@@ -5716,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="P83">
-        <v>3.495</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5727,37 +5733,37 @@
         <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M84" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N84" t="s">
         <v>18</v>
@@ -5766,7 +5772,7 @@
         <v>18</v>
       </c>
       <c r="P84">
-        <v>3.479</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5780,34 +5786,34 @@
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s">
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J85" t="s">
         <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L85" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M85" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N85" t="s">
         <v>18</v>
@@ -5816,7 +5822,7 @@
         <v>18</v>
       </c>
       <c r="P85">
-        <v>3.469</v>
+        <v>3.495</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5827,22 +5833,22 @@
         <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
@@ -5854,10 +5860,10 @@
         <v>17</v>
       </c>
       <c r="L86" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N86" t="s">
         <v>18</v>
@@ -5866,7 +5872,7 @@
         <v>18</v>
       </c>
       <c r="P86">
-        <v>3.465</v>
+        <v>3.479</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5880,34 +5886,34 @@
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K87" t="s">
         <v>17</v>
       </c>
       <c r="L87" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N87" t="s">
         <v>18</v>
@@ -5916,7 +5922,7 @@
         <v>18</v>
       </c>
       <c r="P87">
-        <v>3.46</v>
+        <v>3.465</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5927,37 +5933,37 @@
         <v>110</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>24</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
         <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K88" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M88" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N88" t="s">
         <v>18</v>
@@ -5966,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="P88">
-        <v>3.458</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5980,16 +5986,16 @@
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
         <v>18</v>
@@ -5998,16 +6004,16 @@
         <v>24</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="L89" t="s">
         <v>18</v>
       </c>
       <c r="M89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N89" t="s">
         <v>18</v>
@@ -6016,7 +6022,7 @@
         <v>18</v>
       </c>
       <c r="P89">
-        <v>3.447</v>
+        <v>3.458</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6027,37 +6033,37 @@
         <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="N90" t="s">
         <v>18</v>
@@ -6066,12 +6072,12 @@
         <v>18</v>
       </c>
       <c r="P90">
-        <v>3.443</v>
+        <v>3.447</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>113</v>
@@ -6080,34 +6086,34 @@
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I91" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s">
         <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="L91" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N91" t="s">
         <v>18</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>114</v>
@@ -6130,34 +6136,34 @@
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M92" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N92" t="s">
         <v>18</v>
@@ -6166,7 +6172,7 @@
         <v>18</v>
       </c>
       <c r="P92">
-        <v>3.441</v>
+        <v>3.443</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6180,34 +6186,34 @@
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K93" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L93" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M93" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N93" t="s">
         <v>18</v>
@@ -6216,7 +6222,7 @@
         <v>18</v>
       </c>
       <c r="P93">
-        <v>3.404</v>
+        <v>3.441</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6230,16 +6236,16 @@
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
         <v>19</v>
@@ -6254,10 +6260,10 @@
         <v>19</v>
       </c>
       <c r="L94" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M94" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N94" t="s">
         <v>18</v>
@@ -6266,7 +6272,7 @@
         <v>18</v>
       </c>
       <c r="P94">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6280,34 +6286,34 @@
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s">
         <v>18</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M95" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N95" t="s">
         <v>18</v>
@@ -6316,7 +6322,7 @@
         <v>18</v>
       </c>
       <c r="P95">
-        <v>3.399</v>
+        <v>3.404</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6330,25 +6336,25 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s">
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K96" t="s">
         <v>19</v>
@@ -6357,7 +6363,7 @@
         <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="N96" t="s">
         <v>18</v>
@@ -6366,7 +6372,7 @@
         <v>18</v>
       </c>
       <c r="P96">
-        <v>3.385</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6374,40 +6380,40 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="M97" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N97" t="s">
         <v>18</v>
@@ -6416,7 +6422,7 @@
         <v>18</v>
       </c>
       <c r="P97">
-        <v>3.373</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6424,40 +6430,40 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L98" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="M98" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="N98" t="s">
         <v>18</v>
@@ -6466,48 +6472,48 @@
         <v>18</v>
       </c>
       <c r="P98">
-        <v>3.347</v>
+        <v>3.373</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" t="s">
         <v>123</v>
-      </c>
-      <c r="C99" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F99" t="s">
-        <v>75</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" t="s">
-        <v>18</v>
-      </c>
-      <c r="J99" t="s">
-        <v>41</v>
-      </c>
-      <c r="K99" t="s">
-        <v>19</v>
-      </c>
-      <c r="L99" t="s">
-        <v>75</v>
-      </c>
-      <c r="M99" t="s">
-        <v>41</v>
       </c>
       <c r="N99" t="s">
         <v>18</v>
@@ -6521,7 +6527,7 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>124</v>
@@ -6530,34 +6536,34 @@
         <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I100" t="s">
         <v>18</v>
       </c>
       <c r="J100" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K100" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M100" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N100" t="s">
         <v>18</v>
@@ -6566,7 +6572,7 @@
         <v>18</v>
       </c>
       <c r="P100">
-        <v>3.339</v>
+        <v>3.347</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6586,28 +6592,28 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L101" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="M101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N101" t="s">
         <v>18</v>
@@ -6616,12 +6622,12 @@
         <v>18</v>
       </c>
       <c r="P101">
-        <v>3.334</v>
+        <v>3.339</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>126</v>
@@ -6630,34 +6636,34 @@
         <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K102" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L102" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="M102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N102" t="s">
         <v>18</v>
@@ -6671,7 +6677,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>127</v>
@@ -6680,16 +6686,16 @@
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -6701,13 +6707,13 @@
         <v>24</v>
       </c>
       <c r="K103" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N103" t="s">
         <v>18</v>
@@ -6716,7 +6722,7 @@
         <v>18</v>
       </c>
       <c r="P103">
-        <v>3.304</v>
+        <v>3.334</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6730,34 +6736,34 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I104" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J104" t="s">
         <v>24</v>
       </c>
       <c r="K104" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M104" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N104" t="s">
         <v>18</v>
@@ -6766,7 +6772,7 @@
         <v>18</v>
       </c>
       <c r="P104">
-        <v>3.278</v>
+        <v>3.304</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6780,34 +6786,34 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K105" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M105" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N105" t="s">
         <v>18</v>
@@ -6816,12 +6822,12 @@
         <v>18</v>
       </c>
       <c r="P105">
-        <v>3.221</v>
+        <v>3.278</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>130</v>
@@ -6830,34 +6836,34 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
       </c>
       <c r="I106" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J106" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="K106" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="L106" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N106" t="s">
         <v>18</v>
@@ -6871,22 +6877,22 @@
     </row>
     <row r="107" spans="1:16">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>131</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -6895,19 +6901,19 @@
         <v>18</v>
       </c>
       <c r="I107" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J107" t="s">
         <v>24</v>
       </c>
       <c r="K107" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N107" t="s">
         <v>18</v>
@@ -6916,7 +6922,7 @@
         <v>18</v>
       </c>
       <c r="P107">
-        <v>3.214</v>
+        <v>3.221</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6927,37 +6933,37 @@
         <v>132</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K108" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L108" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="N108" t="s">
         <v>18</v>
@@ -6966,7 +6972,7 @@
         <v>18</v>
       </c>
       <c r="P108">
-        <v>3.13</v>
+        <v>3.214</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6980,34 +6986,34 @@
         <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I109" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
       </c>
       <c r="K109" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L109" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="M109" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="N109" t="s">
         <v>18</v>
@@ -7016,7 +7022,7 @@
         <v>18</v>
       </c>
       <c r="P109">
-        <v>3.095</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7024,40 +7030,40 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>24</v>
+      </c>
+      <c r="L110" t="s">
         <v>135</v>
       </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" t="s">
-        <v>75</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110" t="s">
-        <v>18</v>
-      </c>
-      <c r="J110" t="s">
-        <v>24</v>
-      </c>
-      <c r="K110" t="s">
-        <v>19</v>
-      </c>
-      <c r="L110" t="s">
-        <v>41</v>
-      </c>
       <c r="M110" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="N110" t="s">
         <v>18</v>
@@ -7066,7 +7072,7 @@
         <v>18</v>
       </c>
       <c r="P110">
-        <v>3.039</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7086,7 +7092,7 @@
         <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
         <v>24</v>
@@ -7104,10 +7110,10 @@
         <v>19</v>
       </c>
       <c r="L111" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M111" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N111" t="s">
         <v>18</v>
@@ -7130,13 +7136,13 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
       </c>
       <c r="F112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -7148,16 +7154,16 @@
         <v>19</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K112" t="s">
         <v>19</v>
       </c>
       <c r="L112" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M112" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N112" t="s">
         <v>18</v>
@@ -7180,13 +7186,13 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G113" t="s">
         <v>19</v>
@@ -7198,16 +7204,16 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L113" t="s">
         <v>121</v>
       </c>
       <c r="M113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N113" t="s">
         <v>18</v>
@@ -7230,13 +7236,13 @@
         <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G114" t="s">
         <v>24</v>
@@ -7245,7 +7251,7 @@
         <v>18</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J114" t="s">
         <v>24</v>
@@ -7257,7 +7263,7 @@
         <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N114" t="s">
         <v>18</v>
@@ -7280,13 +7286,13 @@
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F115" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -7298,16 +7304,16 @@
         <v>19</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K115" t="s">
         <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M115" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N115" t="s">
         <v>18</v>
@@ -7330,13 +7336,13 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E116" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G116" t="s">
         <v>17</v>
@@ -7348,16 +7354,16 @@
         <v>24</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K116" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N116" t="s">
         <v>18</v>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -235,6 +235,9 @@
     <t>230211</t>
   </si>
   <si>
+    <t>230070</t>
+  </si>
+  <si>
     <t>230130</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
     <t>230697</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
     <t>230726</t>
   </si>
   <si>
@@ -526,6 +526,9 @@
     <t>8(8.0%)</t>
   </si>
   <si>
+    <t>22(19.1%)</t>
+  </si>
+  <si>
     <t>7(6.1%)</t>
   </si>
   <si>
@@ -557,9 +560,6 @@
   </si>
   <si>
     <t>20(17.4%)</t>
-  </si>
-  <si>
-    <t>22(19.1%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -1283,28 +1283,28 @@
         <v>169</v>
       </c>
       <c r="W4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA4" t="s">
         <v>143</v>
       </c>
       <c r="AB4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC4" t="s">
         <v>163</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AE4" t="s">
         <v>152</v>
@@ -1372,31 +1372,31 @@
         <v>149</v>
       </c>
       <c r="V5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X5" t="s">
         <v>152</v>
       </c>
       <c r="Y5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
         <v>152</v>
@@ -1461,13 +1461,13 @@
         <v>152</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V6" t="s">
         <v>152</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="X6" t="s">
         <v>152</v>
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="W7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X7" t="s">
         <v>152</v>
@@ -1574,7 +1574,7 @@
         <v>186</v>
       </c>
       <c r="AB7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC7" t="s">
         <v>187</v>
@@ -1639,7 +1639,7 @@
         <v>3.96</v>
       </c>
       <c r="S8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
         <v>152</v>
@@ -4139,7 +4139,7 @@
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>24</v>
@@ -4154,16 +4154,16 @@
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K52" t="s">
         <v>19</v>
       </c>
       <c r="L52" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M52" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N52" t="s">
         <v>18</v>
@@ -4172,7 +4172,7 @@
         <v>18</v>
       </c>
       <c r="P52">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4189,31 +4189,31 @@
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4222,12 +4222,12 @@
         <v>18</v>
       </c>
       <c r="P53">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
@@ -4236,34 +4236,34 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N54" t="s">
         <v>18</v>
@@ -4277,43 +4277,43 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
         <v>77</v>
       </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" t="s">
-        <v>43</v>
-      </c>
       <c r="G55" t="s">
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N55" t="s">
         <v>18</v>
@@ -4322,12 +4322,12 @@
         <v>18</v>
       </c>
       <c r="P55">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>78</v>
@@ -4336,16 +4336,16 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>18</v>
@@ -4357,13 +4357,13 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L56" t="s">
         <v>51</v>
       </c>
       <c r="M56" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
@@ -4386,43 +4386,43 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L57" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M57" t="s">
         <v>51</v>
       </c>
       <c r="N57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O57" t="s">
         <v>18</v>
       </c>
       <c r="P57">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4436,43 +4436,43 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L58" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O58" t="s">
         <v>18</v>
       </c>
       <c r="P58">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4486,31 +4486,31 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L59" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M59" t="s">
         <v>43</v>
@@ -4522,7 +4522,7 @@
         <v>18</v>
       </c>
       <c r="P59">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4542,28 +4542,28 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N60" t="s">
         <v>18</v>
@@ -4572,12 +4572,12 @@
         <v>18</v>
       </c>
       <c r="P60">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
@@ -4586,22 +4586,22 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
@@ -4613,7 +4613,7 @@
         <v>43</v>
       </c>
       <c r="M61" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
@@ -4636,34 +4636,34 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s">
         <v>17</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N62" t="s">
         <v>18</v>
@@ -4672,7 +4672,7 @@
         <v>18</v>
       </c>
       <c r="P62">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4686,7 +4686,7 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -4695,25 +4695,25 @@
         <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M63" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N63" t="s">
         <v>18</v>
@@ -4722,7 +4722,7 @@
         <v>18</v>
       </c>
       <c r="P63">
-        <v>3.671</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4736,7 +4736,7 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -4745,25 +4745,25 @@
         <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N64" t="s">
         <v>18</v>
@@ -4772,7 +4772,7 @@
         <v>18</v>
       </c>
       <c r="P64">
-        <v>3.665</v>
+        <v>3.671</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4810,7 +4810,7 @@
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M65" t="s">
         <v>43</v>
@@ -5486,7 +5486,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -5648,7 +5648,7 @@
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
@@ -5736,7 +5736,7 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -6042,7 +6042,7 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
@@ -6242,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -6336,7 +6336,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
         <v>24</v>
@@ -6410,7 +6410,7 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M97" t="s">
         <v>24</v>
@@ -6542,7 +6542,7 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -6560,7 +6560,7 @@
         <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M100" t="s">
         <v>43</v>
@@ -6598,7 +6598,7 @@
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
@@ -6710,7 +6710,7 @@
         <v>67</v>
       </c>
       <c r="L103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M103" t="s">
         <v>51</v>
@@ -6736,7 +6736,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -6760,7 +6760,7 @@
         <v>17</v>
       </c>
       <c r="L104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M104" t="s">
         <v>51</v>
@@ -6792,7 +6792,7 @@
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -6810,7 +6810,7 @@
         <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M105" t="s">
         <v>24</v>
@@ -6860,7 +6860,7 @@
         <v>67</v>
       </c>
       <c r="L106" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M106" t="s">
         <v>51</v>
@@ -7042,7 +7042,7 @@
         <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
         <v>24</v>
@@ -7242,7 +7242,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G114" t="s">
         <v>24</v>
@@ -7292,7 +7292,7 @@
         <v>123</v>
       </c>
       <c r="F115" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -7336,7 +7336,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E116" t="s">
         <v>123</v>
@@ -7360,7 +7360,7 @@
         <v>24</v>
       </c>
       <c r="L116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M116" t="s">
         <v>43</v>

--- a/output/Results - sem3.xlsx
+++ b/output/Results - sem3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="200">
   <si>
     <t>Rank</t>
   </si>
@@ -211,15 +211,18 @@
     <t>230332</t>
   </si>
   <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
     <t>230180</t>
   </si>
   <si>
     <t>230689</t>
   </si>
   <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>230327</t>
   </si>
   <si>
@@ -229,12 +232,12 @@
     <t>230321</t>
   </si>
   <si>
+    <t>230629</t>
+  </si>
+  <si>
     <t>230100</t>
   </si>
   <si>
-    <t>230211</t>
-  </si>
-  <si>
     <t>230070</t>
   </si>
   <si>
@@ -271,9 +274,6 @@
     <t>230195</t>
   </si>
   <si>
-    <t>230629</t>
-  </si>
-  <si>
     <t>230697</t>
   </si>
   <si>
@@ -502,7 +502,7 @@
     <t>52(45.2%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
+    <t>31(27.0%)</t>
   </si>
   <si>
     <t>12(13.5%)</t>
@@ -532,7 +532,7 @@
     <t>7(6.1%)</t>
   </si>
   <si>
-    <t>12(21.4%)</t>
+    <t>13(23.2%)</t>
   </si>
   <si>
     <t>25(47.2%)</t>
@@ -547,34 +547,37 @@
     <t>3(3.0%)</t>
   </si>
   <si>
+    <t>11(19.6%)</t>
+  </si>
+  <si>
     <t>9(17.0%)</t>
   </si>
   <si>
     <t>12(10.4%)</t>
   </si>
   <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
+    <t>15(16.9%)</t>
+  </si>
+  <si>
+    <t>20(17.4%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>24(20.9%)</t>
+  </si>
+  <si>
+    <t>3(5.4%)</t>
+  </si>
+  <si>
+    <t>2(1.7%)</t>
+  </si>
+  <si>
     <t>4(3.5%)</t>
-  </si>
-  <si>
-    <t>15(16.9%)</t>
-  </si>
-  <si>
-    <t>20(17.4%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
-  </si>
-  <si>
-    <t>24(20.9%)</t>
-  </si>
-  <si>
-    <t>3(2.6%)</t>
-  </si>
-  <si>
-    <t>3(5.4%)</t>
-  </si>
-  <si>
-    <t>2(1.7%)</t>
   </si>
   <si>
     <t>16(18.0%)</t>
@@ -1381,22 +1384,22 @@
         <v>152</v>
       </c>
       <c r="Y5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Z5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE5" t="s">
         <v>152</v>
@@ -1482,13 +1485,13 @@
         <v>145</v>
       </c>
       <c r="AB6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC6" t="s">
         <v>163</v>
       </c>
       <c r="AD6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
         <v>152</v>
@@ -1547,13 +1550,13 @@
         <v>3.96</v>
       </c>
       <c r="S7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
         <v>152</v>
       </c>
       <c r="U7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V7" t="s">
         <v>152</v>
@@ -1574,13 +1577,13 @@
         <v>186</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AC7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE7" t="s">
         <v>152</v>
@@ -1639,13 +1642,13 @@
         <v>3.96</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
         <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V8" t="s">
         <v>152</v>
@@ -1657,7 +1660,7 @@
         <v>152</v>
       </c>
       <c r="Y8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z8" t="s">
         <v>152</v>
@@ -1669,7 +1672,7 @@
         <v>152</v>
       </c>
       <c r="AC8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD8" t="s">
         <v>152</v>
@@ -1761,7 +1764,7 @@
         <v>152</v>
       </c>
       <c r="AC9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD9" t="s">
         <v>152</v>
@@ -1835,7 +1838,7 @@
         <v>152</v>
       </c>
       <c r="W10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="X10" t="s">
         <v>152</v>
@@ -1853,7 +1856,7 @@
         <v>152</v>
       </c>
       <c r="AC10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD10" t="s">
         <v>152</v>
@@ -1915,7 +1918,7 @@
         <v>3.96</v>
       </c>
       <c r="S11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T11" t="s">
         <v>152</v>
@@ -2007,7 +2010,7 @@
         <v>3.96</v>
       </c>
       <c r="S12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T12" t="s">
         <v>152</v>
@@ -2099,7 +2102,7 @@
         <v>3.957</v>
       </c>
       <c r="S13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T13" t="s">
         <v>152</v>
@@ -2191,7 +2194,7 @@
         <v>3.957</v>
       </c>
       <c r="S14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T14" t="s">
         <v>152</v>
@@ -2292,7 +2295,7 @@
         <v>152</v>
       </c>
       <c r="V15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W15" t="s">
         <v>186</v>
@@ -2316,7 +2319,7 @@
         <v>152</v>
       </c>
       <c r="AD15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE15" t="s">
         <v>152</v>
@@ -3786,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -3801,16 +3804,16 @@
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s">
         <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="M45" t="s">
         <v>24</v>
@@ -3822,7 +3825,7 @@
         <v>18</v>
       </c>
       <c r="P45">
-        <v>3.778</v>
+        <v>3.782</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3830,13 +3833,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -3845,25 +3848,25 @@
         <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
         <v>18</v>
@@ -3872,7 +3875,7 @@
         <v>18</v>
       </c>
       <c r="P46">
-        <v>3.771</v>
+        <v>3.778</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3886,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -3895,25 +3898,25 @@
         <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="N47" t="s">
         <v>18</v>
@@ -3922,7 +3925,7 @@
         <v>18</v>
       </c>
       <c r="P47">
-        <v>3.765</v>
+        <v>3.771</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3933,16 +3936,16 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
@@ -3951,19 +3954,19 @@
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M48" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N48" t="s">
         <v>18</v>
@@ -3972,7 +3975,7 @@
         <v>18</v>
       </c>
       <c r="P48">
-        <v>3.757</v>
+        <v>3.765</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3983,37 +3986,37 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N49" t="s">
         <v>18</v>
@@ -4022,7 +4025,7 @@
         <v>18</v>
       </c>
       <c r="P49">
-        <v>3.73</v>
+        <v>3.757</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4042,28 +4045,28 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
       </c>
       <c r="L50" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M50" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -4072,12 +4075,12 @@
         <v>18</v>
       </c>
       <c r="P50">
-        <v>3.721</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -4092,28 +4095,28 @@
         <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
         <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L51" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N51" t="s">
         <v>18</v>
@@ -4122,7 +4125,7 @@
         <v>18</v>
       </c>
       <c r="P51">
-        <v>3.721</v>
+        <v>3.726</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4145,22 +4148,22 @@
         <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M52" t="s">
         <v>43</v>
@@ -4172,7 +4175,7 @@
         <v>18</v>
       </c>
       <c r="P52">
-        <v>3.717</v>
+        <v>3.721</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4189,7 +4192,7 @@
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
         <v>24</v>
@@ -4204,16 +4207,16 @@
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s">
         <v>19</v>
       </c>
       <c r="L53" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M53" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N53" t="s">
         <v>18</v>
@@ -4222,7 +4225,7 @@
         <v>18</v>
       </c>
       <c r="P53">
-        <v>3.714</v>
+        <v>3.717</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4239,31 +4242,31 @@
         <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N54" t="s">
         <v>18</v>
@@ -4272,12 +4275,12 @@
         <v>18</v>
       </c>
       <c r="P54">
-        <v>3.713</v>
+        <v>3.714</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
@@ -4286,34 +4289,34 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N55" t="s">
         <v>18</v>
@@ -4327,43 +4330,43 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
         <v>78</v>
       </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>43</v>
-      </c>
       <c r="G56" t="s">
         <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L56" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N56" t="s">
         <v>18</v>
@@ -4372,12 +4375,12 @@
         <v>18</v>
       </c>
       <c r="P56">
-        <v>3.704</v>
+        <v>3.713</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
@@ -4386,16 +4389,16 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
         <v>18</v>
@@ -4407,13 +4410,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L57" t="s">
         <v>51</v>
       </c>
       <c r="M57" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N57" t="s">
         <v>18</v>
@@ -4427,7 +4430,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>80</v>
@@ -4436,43 +4439,43 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
         <v>51</v>
       </c>
       <c r="N58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O58" t="s">
         <v>18</v>
       </c>
       <c r="P58">
-        <v>3.699</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4486,43 +4489,43 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L59" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O59" t="s">
         <v>18</v>
       </c>
       <c r="P59">
-        <v>3.691</v>
+        <v>3.699</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4536,31 +4539,31 @@
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L60" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M60" t="s">
         <v>43</v>
@@ -4572,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="P60">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4592,28 +4595,28 @@
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N61" t="s">
         <v>18</v>
@@ -4622,12 +4625,12 @@
         <v>18</v>
       </c>
       <c r="P61">
-        <v>3.678</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>84</v>
@@ -4636,22 +4639,22 @@
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -4663,7 +4666,7 @@
         <v>43</v>
       </c>
       <c r="M62" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N62" t="s">
         <v>18</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>85</v>
@@ -4686,34 +4689,34 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K63" t="s">
         <v>17</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N63" t="s">
         <v>18</v>
@@ -4722,7 +4725,7 @@
         <v>18</v>
       </c>
       <c r="P63">
-        <v>3.673</v>
+        <v>3.678</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4810,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M65" t="s">
         <v>43</v>
@@ -4860,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="L66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M66" t="s">
         <v>24</v>
@@ -4960,7 +4963,7 @@
         <v>24</v>
       </c>
       <c r="L68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M68" t="s">
         <v>19</v>
@@ -5257,7 +5260,7 @@
         <v>51</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
         <v>18</v>
@@ -5310,7 +5313,7 @@
         <v>19</v>
       </c>
       <c r="L75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M75" t="s">
         <v>24</v>
@@ -5360,7 +5363,7 @@
         <v>17</v>
       </c>
       <c r="L76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M76" t="s">
         <v>43</v>
@@ -5448,7 +5451,7 @@
         <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I78" t="s">
         <v>18</v>
@@ -5463,7 +5466,7 @@
         <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N78" t="s">
         <v>18</v>
@@ -5486,7 +5489,7 @@
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -5560,7 +5563,7 @@
         <v>24</v>
       </c>
       <c r="L80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M80" t="s">
         <v>24</v>
@@ -5592,7 +5595,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G81" t="s">
         <v>19</v>
@@ -5610,7 +5613,7 @@
         <v>19</v>
       </c>
       <c r="L81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M81" t="s">
         <v>43</v>
@@ -5648,7 +5651,7 @@
         <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
@@ -5713,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="M83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N83" t="s">
         <v>18</v>
@@ -5736,7 +5739,7 @@
         <v>18</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E84" t="s">
         <v>19</v>
@@ -5810,7 +5813,7 @@
         <v>19</v>
       </c>
       <c r="L85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M85" t="s">
         <v>51</v>
@@ -5960,7 +5963,7 @@
         <v>17</v>
       </c>
       <c r="L88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M88" t="s">
         <v>51</v>
@@ -5992,7 +5995,7 @@
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
         <v>19</v>
@@ -6004,10 +6007,10 @@
         <v>24</v>
       </c>
       <c r="J89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L89" t="s">
         <v>18</v>
@@ -6042,7 +6045,7 @@
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
@@ -6092,7 +6095,7 @@
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -6113,7 +6116,7 @@
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N91" t="s">
         <v>18</v>
@@ -6160,10 +6163,10 @@
         <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N92" t="s">
         <v>18</v>
@@ -6242,7 +6245,7 @@
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
@@ -6310,7 +6313,7 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M95" t="s">
         <v>43</v>
@@ -6336,7 +6339,7 @@
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
         <v>24</v>
@@ -6392,7 +6395,7 @@
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
         <v>19</v>
@@ -6410,7 +6413,7 @@
         <v>17</v>
       </c>
       <c r="L97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M97" t="s">
         <v>24</v>
@@ -6542,7 +6545,7 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s">
         <v>19</v>
@@ -6560,7 +6563,7 @@
         <v>19</v>
       </c>
       <c r="L100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M100" t="s">
         <v>43</v>
@@ -6592,13 +6595,13 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
         <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I101" t="s">
         <v>18</v>
@@ -6610,7 +6613,7 @@
         <v>17</v>
       </c>
       <c r="L101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M101" t="s">
         <v>51</v>
@@ -6648,7 +6651,7 @@
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I102" t="s">
         <v>18</v>
@@ -6707,10 +6710,10 @@
         <v>24</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M103" t="s">
         <v>51</v>
@@ -6736,7 +6739,7 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
@@ -6760,7 +6763,7 @@
         <v>17</v>
       </c>
       <c r="L104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M104" t="s">
         <v>51</v>
@@ -6786,13 +6789,13 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
       </c>
       <c r="F105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
@@ -6810,7 +6813,7 @@
         <v>24</v>
       </c>
       <c r="L105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M105" t="s">
         <v>24</v>
@@ -6842,7 +6845,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
         <v>17</v>
@@ -6857,10 +6860,10 @@
         <v>51</v>
       </c>
       <c r="K106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L106" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M106" t="s">
         <v>51</v>
@@ -6892,7 +6895,7 @@
         <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G107" t="s">
         <v>19</v>
@@ -6910,7 +6913,7 @@
         <v>24</v>
       </c>
       <c r="L107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M107" t="s">
         <v>51</v>
@@ -7042,7 +7045,7 @@
         <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s">
         <v>24</v>
@@ -7063,7 +7066,7 @@
         <v>135</v>
       </c>
       <c r="M110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N110" t="s">
         <v>18</v>
@@ -7110,7 +7113,7 @@
         <v>19</v>
       </c>
       <c r="L111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M111" t="s">
         <v>123</v>
@@ -7136,7 +7139,7 @@
         <v>18</v>
       </c>
       <c r="D112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -7160,7 +7163,7 @@
         <v>19</v>
       </c>
       <c r="L112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M112" t="s">
         <v>123</v>
@@ -7186,7 +7189,7 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
@@ -7204,7 +7207,7 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K113" t="s">
         <v>51</v>
@@ -7242,7 +7245,7 @@
         <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s">
         <v>24</v>
@@ -7292,7 +7295,7 @@
         <v>123</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
         <v>19</v>
@@ -7310,7 +7313,7 @@
         <v>19</v>
       </c>
       <c r="L115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M115" t="s">
         <v>123</v>
@@ -7336,7 +7339,7 @@
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E116" t="s">
         <v>123</v>
@@ -7360,7 +7363,7 @@
         <v>24</v>
       </c>
       <c r="L116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M116" t="s">
         <v>43</v>
